--- a/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC+Dem.xlsx
@@ -444,34 +444,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.003248162332823899</v>
+        <v>-0.215820741050086</v>
       </c>
       <c r="C2">
-        <v>0.0007619312609156476</v>
+        <v>0.09848701361255549</v>
       </c>
       <c r="D2">
-        <v>-0.002426144006110533</v>
+        <v>-0.1142861792465476</v>
       </c>
       <c r="E2">
-        <v>-0.001988281615203545</v>
+        <v>-0.1573356445170099</v>
       </c>
       <c r="F2">
-        <v>-0.002296498203270257</v>
+        <v>-0.1346379347666956</v>
       </c>
       <c r="G2">
-        <v>-0.003815163429781731</v>
+        <v>-0.1911537256978313</v>
       </c>
       <c r="H2">
-        <v>-0.00365553788567466</v>
+        <v>-0.1924790819818546</v>
       </c>
       <c r="I2">
-        <v>0.00240494265237118</v>
+        <v>0.135258924039316</v>
       </c>
       <c r="J2">
-        <v>-0.0007463073561218066</v>
+        <v>-0.07936478790154577</v>
       </c>
       <c r="K2">
-        <v>-0.0005095535392813514</v>
+        <v>0.01063143459714462</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -479,34 +479,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.003896377143057887</v>
+        <v>-0.002852862379590566</v>
       </c>
       <c r="C3">
-        <v>0.001007052324792779</v>
+        <v>0.00164175971324446</v>
       </c>
       <c r="D3">
-        <v>-0.002647973574224959</v>
+        <v>-0.001241164679188767</v>
       </c>
       <c r="E3">
-        <v>-0.001925440887437971</v>
+        <v>-0.001916748173356618</v>
       </c>
       <c r="F3">
-        <v>-0.00199624460338817</v>
+        <v>-0.002350100637089369</v>
       </c>
       <c r="G3">
-        <v>-0.004016605648232252</v>
+        <v>-0.003363051055802196</v>
       </c>
       <c r="H3">
-        <v>-0.004365346048063178</v>
+        <v>-0.002988763875953539</v>
       </c>
       <c r="I3">
-        <v>0.00283566754218067</v>
+        <v>0.002207306921459585</v>
       </c>
       <c r="J3">
-        <v>-0.0007461753722189886</v>
+        <v>-0.001611836131561272</v>
       </c>
       <c r="K3">
-        <v>-0.000196643714063136</v>
+        <v>0.0001464849354416005</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -514,34 +514,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.4283841865080612</v>
+        <v>-0.003217267614626542</v>
       </c>
       <c r="C4">
-        <v>0.2553229544300694</v>
+        <v>0.001514048699370469</v>
       </c>
       <c r="D4">
-        <v>-0.2149326686451972</v>
+        <v>-0.001989599098259647</v>
       </c>
       <c r="E4">
-        <v>-0.2327571723587026</v>
+        <v>-0.001602894602437203</v>
       </c>
       <c r="F4">
-        <v>-0.1587422251150708</v>
+        <v>-0.002237675034203586</v>
       </c>
       <c r="G4">
-        <v>-0.5494345883300875</v>
+        <v>-0.004118411728306937</v>
       </c>
       <c r="H4">
-        <v>-0.5364439002041931</v>
+        <v>-0.00309953908409682</v>
       </c>
       <c r="I4">
-        <v>0.1977030782788804</v>
+        <v>0.001835527836794695</v>
       </c>
       <c r="J4">
-        <v>-0.1930709403130784</v>
+        <v>-0.001609422410760017</v>
       </c>
       <c r="K4">
-        <v>0.06595272368791329</v>
+        <v>-0.0003322937209161017</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -549,34 +549,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.2984107045122936</v>
+        <v>-0.3706397466727467</v>
       </c>
       <c r="C5">
-        <v>0.1413405161279326</v>
+        <v>0.1808697366301978</v>
       </c>
       <c r="D5">
-        <v>-0.2120872755661144</v>
+        <v>-0.2332215439446391</v>
       </c>
       <c r="E5">
-        <v>-0.164807507129134</v>
+        <v>-0.2032346220733925</v>
       </c>
       <c r="F5">
-        <v>-0.1007133049987751</v>
+        <v>-0.168226371656583</v>
       </c>
       <c r="G5">
-        <v>-0.4178391855007828</v>
+        <v>-0.475671861234005</v>
       </c>
       <c r="H5">
-        <v>-0.4036240506729747</v>
+        <v>-0.2405694209480715</v>
       </c>
       <c r="I5">
-        <v>0.1685789906286126</v>
+        <v>0.1646528792838594</v>
       </c>
       <c r="J5">
-        <v>-0.177766691574124</v>
+        <v>-0.2177792127036292</v>
       </c>
       <c r="K5">
-        <v>0.1022096873227575</v>
+        <v>0.04327814533508817</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -584,34 +584,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.002689687572339818</v>
+        <v>-0.3874409950782015</v>
       </c>
       <c r="C6">
-        <v>0.001072257498846523</v>
+        <v>0.1918058915459034</v>
       </c>
       <c r="D6">
-        <v>-0.002218789393508632</v>
+        <v>-0.1731251950045414</v>
       </c>
       <c r="E6">
-        <v>-0.00255798999399375</v>
+        <v>-0.06097945411798382</v>
       </c>
       <c r="F6">
-        <v>-0.00125945158754747</v>
+        <v>-0.2090447952411589</v>
       </c>
       <c r="G6">
-        <v>-0.00377422991586813</v>
+        <v>-0.4526203828506948</v>
       </c>
       <c r="H6">
-        <v>-0.003130279300809803</v>
+        <v>-0.3536350968657954</v>
       </c>
       <c r="I6">
-        <v>0.001828276680587022</v>
+        <v>0.3031714831917591</v>
       </c>
       <c r="J6">
-        <v>-0.0007459614391613564</v>
+        <v>-0.1744557651214475</v>
       </c>
       <c r="K6">
-        <v>-0.0001951499869552917</v>
+        <v>0.01535209466491407</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -619,34 +619,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.8730277957668404</v>
+        <v>-0.003325846767889683</v>
       </c>
       <c r="C7">
-        <v>0.439899713253705</v>
+        <v>0.001080322313946058</v>
       </c>
       <c r="D7">
-        <v>-0.308322212471084</v>
+        <v>-0.002077712931972136</v>
       </c>
       <c r="E7">
-        <v>-0.3069518009304856</v>
+        <v>-0.002122150403417859</v>
       </c>
       <c r="F7">
-        <v>-0.490142632430178</v>
+        <v>-0.001848774026024209</v>
       </c>
       <c r="G7">
-        <v>-0.7433738270333873</v>
+        <v>-0.003536196825415333</v>
       </c>
       <c r="H7">
-        <v>-0.9759552268375207</v>
+        <v>-0.003635505797517662</v>
       </c>
       <c r="I7">
-        <v>0.3228441006109108</v>
+        <v>0.002496941203490883</v>
       </c>
       <c r="J7">
-        <v>-0.2324219554293799</v>
+        <v>-0.001612787670172603</v>
       </c>
       <c r="K7">
-        <v>-0.06319910117378028</v>
+        <v>-0.0001026465761837394</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -654,34 +654,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.004134975693140969</v>
+        <v>-0.4196153838527808</v>
       </c>
       <c r="C8">
-        <v>0.001731535300037737</v>
+        <v>0.2260392727318461</v>
       </c>
       <c r="D8">
-        <v>-0.002280708690509843</v>
+        <v>-0.2216701991072595</v>
       </c>
       <c r="E8">
-        <v>-0.002198529209328609</v>
+        <v>-0.2645142962426434</v>
       </c>
       <c r="F8">
-        <v>-0.002198649309256027</v>
+        <v>-0.2396322685104825</v>
       </c>
       <c r="G8">
-        <v>-0.004052273076334713</v>
+        <v>-0.4812341041071608</v>
       </c>
       <c r="H8">
-        <v>-0.004258191688405586</v>
+        <v>-0.2711881858862002</v>
       </c>
       <c r="I8">
-        <v>0.003161626627323741</v>
+        <v>0.2421757100916321</v>
       </c>
       <c r="J8">
-        <v>-0.000745006774153148</v>
+        <v>-0.1709237687835931</v>
       </c>
       <c r="K8">
-        <v>0.0003086887693440409</v>
+        <v>0.02531990326310827</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -689,34 +689,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.4413508678674329</v>
+        <v>-0.7518419822498412</v>
       </c>
       <c r="C9">
-        <v>0.2642574694772547</v>
+        <v>0.4469549397313646</v>
       </c>
       <c r="D9">
-        <v>-0.3536055024261445</v>
+        <v>-0.3331588894942424</v>
       </c>
       <c r="E9">
-        <v>-0.5259540327970671</v>
+        <v>-0.4159447969848237</v>
       </c>
       <c r="F9">
-        <v>-0.2668452098920252</v>
+        <v>-0.2863217589467511</v>
       </c>
       <c r="G9">
-        <v>-0.5564621931761227</v>
+        <v>-0.7379051555677981</v>
       </c>
       <c r="H9">
-        <v>-0.4117657813955168</v>
+        <v>-0.5975047115652182</v>
       </c>
       <c r="I9">
-        <v>0.3577958413388136</v>
+        <v>0.3345375490145345</v>
       </c>
       <c r="J9">
-        <v>-0.5327776665579407</v>
+        <v>-0.1476284675002382</v>
       </c>
       <c r="K9">
-        <v>0.009078645073435046</v>
+        <v>0.0754527733416491</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -724,34 +724,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.1420630658590908</v>
+        <v>-0.3730960675612565</v>
       </c>
       <c r="C10">
-        <v>0.1451898341939422</v>
+        <v>0.2246860028016208</v>
       </c>
       <c r="D10">
-        <v>-0.09656603519768291</v>
+        <v>-0.2058984432444279</v>
       </c>
       <c r="E10">
-        <v>-0.1109454475699692</v>
+        <v>-0.1878483079683926</v>
       </c>
       <c r="F10">
-        <v>-0.08493513388783913</v>
+        <v>-0.08847149736081411</v>
       </c>
       <c r="G10">
-        <v>-0.2135248056083227</v>
+        <v>-0.4445110191607559</v>
       </c>
       <c r="H10">
-        <v>-0.125433339713091</v>
+        <v>-0.2624582436124063</v>
       </c>
       <c r="I10">
-        <v>0.105057409228215</v>
+        <v>0.2852879804016622</v>
       </c>
       <c r="J10">
-        <v>-0.05122776625594095</v>
+        <v>-0.2812305117106891</v>
       </c>
       <c r="K10">
-        <v>0.0005253615031556049</v>
+        <v>0.06045151848393396</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -759,34 +759,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.3730460106108784</v>
+        <v>-0.3700129080780943</v>
       </c>
       <c r="C11">
-        <v>0.2673530844581085</v>
+        <v>0.1847003322750723</v>
       </c>
       <c r="D11">
-        <v>-0.4841226138564604</v>
+        <v>-0.2337326710604943</v>
       </c>
       <c r="E11">
-        <v>-0.1470236534887651</v>
+        <v>-0.2982992453609006</v>
       </c>
       <c r="F11">
-        <v>-0.3060399127453833</v>
+        <v>-0.1529342741080616</v>
       </c>
       <c r="G11">
-        <v>-0.7811854129467954</v>
+        <v>-0.4085619262530067</v>
       </c>
       <c r="H11">
-        <v>-0.08399275009106502</v>
+        <v>-0.2917695870471491</v>
       </c>
       <c r="I11">
-        <v>0.2552102616879744</v>
+        <v>0.2479933651324026</v>
       </c>
       <c r="J11">
-        <v>-0.3542145019480518</v>
+        <v>-0.1496070175195159</v>
       </c>
       <c r="K11">
-        <v>0.1657999844833116</v>
+        <v>-0.02526821491737596</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -794,34 +794,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.3731719139372188</v>
+        <v>-0.3169493458916209</v>
       </c>
       <c r="C12">
-        <v>0.4005039931315832</v>
+        <v>0.2000651410778915</v>
       </c>
       <c r="D12">
-        <v>-0.3191975162184161</v>
+        <v>-0.1378634840908559</v>
       </c>
       <c r="E12">
-        <v>-0.3891512169888224</v>
+        <v>-0.1684011713134952</v>
       </c>
       <c r="F12">
-        <v>-0.129240530375109</v>
+        <v>-0.05572410533311358</v>
       </c>
       <c r="G12">
-        <v>-0.5609390114416521</v>
+        <v>-0.3852038684295462</v>
       </c>
       <c r="H12">
-        <v>-0.006759092230759503</v>
+        <v>-0.3223489835181327</v>
       </c>
       <c r="I12">
-        <v>0.357028852533372</v>
+        <v>0.2549480222644084</v>
       </c>
       <c r="J12">
-        <v>-0.2706898772562126</v>
+        <v>-0.2301729143731923</v>
       </c>
       <c r="K12">
-        <v>-0.1311755336385713</v>
+        <v>0.002192919752723814</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,34 +829,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.9041538189426426</v>
+        <v>-0.00236648617631163</v>
       </c>
       <c r="C13">
-        <v>0.6074004157212252</v>
+        <v>0.001308967803751604</v>
       </c>
       <c r="D13">
-        <v>-0.4332770644592775</v>
+        <v>-0.001617442811785947</v>
       </c>
       <c r="E13">
-        <v>-0.3545614895309837</v>
+        <v>-0.002399911153624759</v>
       </c>
       <c r="F13">
-        <v>-0.4119105602927229</v>
+        <v>-0.001250334164743011</v>
       </c>
       <c r="G13">
-        <v>-1.084745098667946</v>
+        <v>-0.002923503466222614</v>
       </c>
       <c r="H13">
-        <v>-0.6137502310659221</v>
+        <v>-0.002775507420723348</v>
       </c>
       <c r="I13">
-        <v>0.1429276408347409</v>
+        <v>0.001795090730798267</v>
       </c>
       <c r="J13">
-        <v>-0.3454899467617513</v>
+        <v>-0.001612075975728061</v>
       </c>
       <c r="K13">
-        <v>0.3339354215699726</v>
+        <v>0.0006351841655266784</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -864,34 +864,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.1411224971461745</v>
+        <v>-0.3663461249891974</v>
       </c>
       <c r="C14">
-        <v>0.13352529271206</v>
+        <v>0.2211351550568469</v>
       </c>
       <c r="D14">
-        <v>-0.03378136139426452</v>
+        <v>-0.1565663129114181</v>
       </c>
       <c r="E14">
-        <v>-0.1393371835428202</v>
+        <v>-0.3023937359088035</v>
       </c>
       <c r="F14">
-        <v>-0.1287261042026193</v>
+        <v>-0.1445245711206307</v>
       </c>
       <c r="G14">
-        <v>-0.1765043087582744</v>
+        <v>-0.3646944453552498</v>
       </c>
       <c r="H14">
-        <v>-0.1575048941836066</v>
+        <v>-0.3765768121047262</v>
       </c>
       <c r="I14">
-        <v>0.1020253854366565</v>
+        <v>0.2333099478406798</v>
       </c>
       <c r="J14">
-        <v>-0.05381277136278736</v>
+        <v>-0.2058081329125696</v>
       </c>
       <c r="K14">
-        <v>0.03311749078154346</v>
+        <v>-0.1375935309349442</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -899,34 +899,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.1701283034455647</v>
+        <v>-0.2138056961325067</v>
       </c>
       <c r="C15">
-        <v>0.07196508450904877</v>
+        <v>0.1111432652629967</v>
       </c>
       <c r="D15">
-        <v>-0.1209215121472691</v>
+        <v>-0.1036526879931203</v>
       </c>
       <c r="E15">
-        <v>-0.1714323958358414</v>
+        <v>-0.1107708534348751</v>
       </c>
       <c r="F15">
-        <v>-0.1521688008975525</v>
+        <v>-0.1074696689130819</v>
       </c>
       <c r="G15">
-        <v>-0.1899868395474872</v>
+        <v>-0.2209148641062638</v>
       </c>
       <c r="H15">
-        <v>-0.147834616326128</v>
+        <v>-0.2112013298426058</v>
       </c>
       <c r="I15">
-        <v>0.08161454777050693</v>
+        <v>0.1040296325178338</v>
       </c>
       <c r="J15">
-        <v>-0.05227334391401172</v>
+        <v>-0.09023429391291553</v>
       </c>
       <c r="K15">
-        <v>-0.05245140638538599</v>
+        <v>0.01242601847164128</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -934,34 +934,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.02731033885881404</v>
+        <v>-0.003383658251567944</v>
       </c>
       <c r="C16">
-        <v>0.01947408537060979</v>
+        <v>0.002290110226813343</v>
       </c>
       <c r="D16">
-        <v>-0.01469935488809031</v>
+        <v>-0.001395142528978922</v>
       </c>
       <c r="E16">
-        <v>-0.01764087459015786</v>
+        <v>-0.00228839999866146</v>
       </c>
       <c r="F16">
-        <v>-0.01696707728951694</v>
+        <v>-0.002371036678088924</v>
       </c>
       <c r="G16">
-        <v>-0.03649969025460116</v>
+        <v>-0.003574255825707558</v>
       </c>
       <c r="H16">
-        <v>-0.03098406667482393</v>
+        <v>-0.003313536424565976</v>
       </c>
       <c r="I16">
-        <v>0.01955044296974756</v>
+        <v>0.002097252607131037</v>
       </c>
       <c r="J16">
-        <v>-0.007191730893023404</v>
+        <v>-0.001609489961149957</v>
       </c>
       <c r="K16">
-        <v>-0.004945903229486692</v>
+        <v>0.0002859009558858693</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -969,34 +969,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.288218215909565</v>
+        <v>-0.02324222677418652</v>
       </c>
       <c r="C17">
-        <v>0.1225155349160451</v>
+        <v>0.01199717164802173</v>
       </c>
       <c r="D17">
-        <v>-0.1924074838730754</v>
+        <v>-0.01323998813390668</v>
       </c>
       <c r="E17">
-        <v>-0.2345298007511198</v>
+        <v>-0.01968941086799731</v>
       </c>
       <c r="F17">
-        <v>-0.2269962501306563</v>
+        <v>-0.01596279173440794</v>
       </c>
       <c r="G17">
-        <v>-0.3488735189802589</v>
+        <v>-0.03095512068173343</v>
       </c>
       <c r="H17">
-        <v>-0.3690454047863977</v>
+        <v>-0.02767916731699898</v>
       </c>
       <c r="I17">
-        <v>0.1853509421818027</v>
+        <v>0.01394818320965419</v>
       </c>
       <c r="J17">
-        <v>-0.1520579834659572</v>
+        <v>-0.01515697125033102</v>
       </c>
       <c r="K17">
-        <v>0.002601475574026644</v>
+        <v>0.001004606983520174</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1004,34 +1004,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.1774077344741231</v>
+        <v>-0.3616430286525191</v>
       </c>
       <c r="C18">
-        <v>0.1069182310861309</v>
+        <v>0.2542709488605017</v>
       </c>
       <c r="D18">
-        <v>-0.392020063830851</v>
+        <v>-0.1829166659738262</v>
       </c>
       <c r="E18">
-        <v>-0.3997562995945156</v>
+        <v>-0.2578108065289621</v>
       </c>
       <c r="F18">
-        <v>-0.2783695025074409</v>
+        <v>-0.112935351321138</v>
       </c>
       <c r="G18">
-        <v>-0.4617667066552347</v>
+        <v>-0.412036019173754</v>
       </c>
       <c r="H18">
-        <v>-0.2031361670330465</v>
+        <v>-0.2366347425147441</v>
       </c>
       <c r="I18">
-        <v>0.514206991579464</v>
+        <v>0.2802996070923043</v>
       </c>
       <c r="J18">
-        <v>-0.9966280396844185</v>
+        <v>-0.2219238365157193</v>
       </c>
       <c r="K18">
-        <v>0.008915347601719659</v>
+        <v>-0.07556640055602909</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1039,34 +1039,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.003004298548226092</v>
+        <v>-0.3038326791466298</v>
       </c>
       <c r="C19">
-        <v>0.001444682033841307</v>
+        <v>0.1809391374938402</v>
       </c>
       <c r="D19">
-        <v>-0.001819134479809739</v>
+        <v>-0.1076284358777655</v>
       </c>
       <c r="E19">
-        <v>-0.002525071906023679</v>
+        <v>-0.2229234373796626</v>
       </c>
       <c r="F19">
-        <v>-0.001887981156062735</v>
+        <v>-0.1744673085745791</v>
       </c>
       <c r="G19">
-        <v>-0.003320089926555385</v>
+        <v>-0.2971121524733026</v>
       </c>
       <c r="H19">
-        <v>-0.003690508001043683</v>
+        <v>-0.3364988876458854</v>
       </c>
       <c r="I19">
-        <v>0.002487396329636099</v>
+        <v>0.2984086554063</v>
       </c>
       <c r="J19">
-        <v>-0.0007465157899989156</v>
+        <v>-0.1992865674053452</v>
       </c>
       <c r="K19">
-        <v>-0.0001703945752645547</v>
+        <v>0.01953348146183423</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1074,34 +1074,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.3391267286830855</v>
+        <v>-0.3496419427689348</v>
       </c>
       <c r="C20">
-        <v>0.3408042640305945</v>
+        <v>0.1265197958325711</v>
       </c>
       <c r="D20">
-        <v>-0.225868085133595</v>
+        <v>-0.2580572334523666</v>
       </c>
       <c r="E20">
-        <v>-0.1377140752212401</v>
+        <v>-0.2837464818878676</v>
       </c>
       <c r="F20">
-        <v>-0.2535372505261536</v>
+        <v>-0.2040360782723579</v>
       </c>
       <c r="G20">
-        <v>-0.499048027671624</v>
+        <v>-0.4301250857463545</v>
       </c>
       <c r="H20">
-        <v>-0.2441723564914066</v>
+        <v>-0.2355827152677201</v>
       </c>
       <c r="I20">
-        <v>0.1979490224623697</v>
+        <v>0.1518926134896967</v>
       </c>
       <c r="J20">
-        <v>-0.1829906132864437</v>
+        <v>-0.1824442980141744</v>
       </c>
       <c r="K20">
-        <v>0.04326563423261939</v>
+        <v>0.06788481415534693</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1109,34 +1109,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.4008548512411526</v>
+        <v>-0.4121158514372989</v>
       </c>
       <c r="C21">
-        <v>0.36344022412593</v>
+        <v>0.194256738207469</v>
       </c>
       <c r="D21">
-        <v>-0.2826378119785914</v>
+        <v>-0.173651785150485</v>
       </c>
       <c r="E21">
-        <v>-0.3912214404667247</v>
+        <v>-0.1890509638619648</v>
       </c>
       <c r="F21">
-        <v>-0.001604679023618289</v>
+        <v>-0.2698409597143092</v>
       </c>
       <c r="G21">
-        <v>-0.5986229152600638</v>
+        <v>-0.5648962790645885</v>
       </c>
       <c r="H21">
-        <v>-0.5248341214490615</v>
+        <v>-0.2695438165603062</v>
       </c>
       <c r="I21">
-        <v>0.4468445919830975</v>
+        <v>0.3126032394937964</v>
       </c>
       <c r="J21">
-        <v>-0.6736547489817865</v>
+        <v>-0.202161718476488</v>
       </c>
       <c r="K21">
-        <v>-0.1864328920382093</v>
+        <v>0.1859350240936981</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1144,34 +1144,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.002529979976348424</v>
+        <v>-0.1716461806515826</v>
       </c>
       <c r="C22">
-        <v>0.001007008848046202</v>
+        <v>0.08185897291262187</v>
       </c>
       <c r="D22">
-        <v>-0.002275411820629394</v>
+        <v>-0.08500275693401715</v>
       </c>
       <c r="E22">
-        <v>-0.001906894296208024</v>
+        <v>-0.1335887896287915</v>
       </c>
       <c r="F22">
-        <v>-0.00228279823489043</v>
+        <v>-0.1335568900645457</v>
       </c>
       <c r="G22">
-        <v>-0.003553977262889433</v>
+        <v>-0.2021368318750366</v>
       </c>
       <c r="H22">
-        <v>-0.002952197526746888</v>
+        <v>-0.1681426997817138</v>
       </c>
       <c r="I22">
-        <v>0.001665746826019085</v>
+        <v>0.06746612099704891</v>
       </c>
       <c r="J22">
-        <v>-0.0007461086823778837</v>
+        <v>-0.09419559722374607</v>
       </c>
       <c r="K22">
-        <v>8.111036631431603E-05</v>
+        <v>0.02496223224866372</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1179,34 +1179,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.002210919796158268</v>
+        <v>-0.3812607600236891</v>
       </c>
       <c r="C23">
-        <v>0.001437531082501431</v>
+        <v>0.3118623974999937</v>
       </c>
       <c r="D23">
-        <v>-0.001643966418318406</v>
+        <v>-0.2195338618216269</v>
       </c>
       <c r="E23">
-        <v>-0.002431014289883669</v>
+        <v>-0.2395009206080745</v>
       </c>
       <c r="F23">
-        <v>-0.001226571447960539</v>
+        <v>-0.1986771420149808</v>
       </c>
       <c r="G23">
-        <v>-0.003051330434416208</v>
+        <v>-0.424195192558575</v>
       </c>
       <c r="H23">
-        <v>-0.00300322232203073</v>
+        <v>-0.2970382495341557</v>
       </c>
       <c r="I23">
-        <v>0.002010776529602688</v>
+        <v>0.172240071739611</v>
       </c>
       <c r="J23">
-        <v>-0.0007457220420140368</v>
+        <v>-0.1525536287217657</v>
       </c>
       <c r="K23">
-        <v>0.0001582504328684293</v>
+        <v>0.1162374505033237</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1214,34 +1214,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.3318333910688429</v>
+        <v>-0.00319929339081272</v>
       </c>
       <c r="C24">
-        <v>0.1817286018065025</v>
+        <v>0.00102424427170946</v>
       </c>
       <c r="D24">
-        <v>-0.1906546793310683</v>
+        <v>-0.002538025899960616</v>
       </c>
       <c r="E24">
-        <v>-0.2704404284064682</v>
+        <v>-0.001746300628226607</v>
       </c>
       <c r="F24">
-        <v>-0.1906646752618578</v>
+        <v>-0.002493510074959833</v>
       </c>
       <c r="G24">
-        <v>-0.3678416433122004</v>
+        <v>-0.003889286330144722</v>
       </c>
       <c r="H24">
-        <v>-0.3510846367401159</v>
+        <v>-0.002817868542561878</v>
       </c>
       <c r="I24">
-        <v>0.2834037804102195</v>
+        <v>0.00194843160997157</v>
       </c>
       <c r="J24">
-        <v>-0.1296822682159063</v>
+        <v>-0.001611037939658768</v>
       </c>
       <c r="K24">
-        <v>0.01298132791886309</v>
+        <v>8.276510457008895E-06</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1249,34 +1249,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.4825747305352524</v>
+        <v>-0.003752213542164043</v>
       </c>
       <c r="C25">
-        <v>0.3215322757881832</v>
+        <v>0.001839131413345065</v>
       </c>
       <c r="D25">
-        <v>-0.1702682119390199</v>
+        <v>-0.002620819802589777</v>
       </c>
       <c r="E25">
-        <v>-0.2924751311420939</v>
+        <v>-0.002166018273552214</v>
       </c>
       <c r="F25">
-        <v>-0.2619973112685876</v>
+        <v>-0.001778384845833076</v>
       </c>
       <c r="G25">
-        <v>-0.4491106323591784</v>
+        <v>-0.004299841472730162</v>
       </c>
       <c r="H25">
-        <v>-0.4471644644340709</v>
+        <v>-0.003151561747721578</v>
       </c>
       <c r="I25">
-        <v>0.3430831159725917</v>
+        <v>0.00223215961811358</v>
       </c>
       <c r="J25">
-        <v>-0.106147782026317</v>
+        <v>-0.001611591609407613</v>
       </c>
       <c r="K25">
-        <v>-0.0561503305563631</v>
+        <v>-0.000103924661364614</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1284,34 +1284,34 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.3353287520804278</v>
+        <v>-0.002922840286324543</v>
       </c>
       <c r="C26">
-        <v>0.1993882781131711</v>
+        <v>0.001388366059560308</v>
       </c>
       <c r="D26">
-        <v>-0.1550908584651075</v>
+        <v>-0.001815640679190828</v>
       </c>
       <c r="E26">
-        <v>-0.1872011403074983</v>
+        <v>-0.002079825393538023</v>
       </c>
       <c r="F26">
-        <v>-0.2049458846743641</v>
+        <v>-0.00204076901670796</v>
       </c>
       <c r="G26">
-        <v>-0.6618256128836416</v>
+        <v>-0.00325912095084338</v>
       </c>
       <c r="H26">
-        <v>-0.257093436092774</v>
+        <v>-0.003125846180079405</v>
       </c>
       <c r="I26">
-        <v>0.2638691431728452</v>
+        <v>0.002235988697044273</v>
       </c>
       <c r="J26">
-        <v>-0.279893796676401</v>
+        <v>-0.001611998439936372</v>
       </c>
       <c r="K26">
-        <v>0.06098021562744614</v>
+        <v>-0.0006673065767154307</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1319,34 +1319,34 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.4762573657050466</v>
+        <v>-0.406291868999966</v>
       </c>
       <c r="C27">
-        <v>0.4147450401336091</v>
+        <v>0.1188065663084042</v>
       </c>
       <c r="D27">
-        <v>-0.4123581840472388</v>
+        <v>-0.2012096691042365</v>
       </c>
       <c r="E27">
-        <v>-0.4222266876339041</v>
+        <v>-0.2513051597320083</v>
       </c>
       <c r="F27">
-        <v>-0.3435559316047493</v>
+        <v>-0.3164885957561932</v>
       </c>
       <c r="G27">
-        <v>-0.6210090164949519</v>
+        <v>-0.359879737860607</v>
       </c>
       <c r="H27">
-        <v>-0.4957519132158112</v>
+        <v>-0.3328376183960991</v>
       </c>
       <c r="I27">
-        <v>0.3693226965105824</v>
+        <v>0.3518729505009371</v>
       </c>
       <c r="J27">
-        <v>-0.6259033827704017</v>
+        <v>-0.1028878687006074</v>
       </c>
       <c r="K27">
-        <v>0.05153098207392443</v>
+        <v>-0.04548823067310936</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1354,34 +1354,34 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.2455900398590921</v>
+        <v>-0.03515880598927813</v>
       </c>
       <c r="C28">
-        <v>0.3652950250093798</v>
+        <v>0.02308678274014948</v>
       </c>
       <c r="D28">
-        <v>-0.2440915112329648</v>
+        <v>-0.01278498574002341</v>
       </c>
       <c r="E28">
-        <v>-0.06660226816293709</v>
+        <v>-0.02415983721018119</v>
       </c>
       <c r="F28">
-        <v>-0.04864747531480028</v>
+        <v>-0.02837323515220512</v>
       </c>
       <c r="G28">
-        <v>-0.6936396251812559</v>
+        <v>-0.03424200863724539</v>
       </c>
       <c r="H28">
-        <v>-0.2284440591951761</v>
+        <v>-0.02674749253992809</v>
       </c>
       <c r="I28">
-        <v>0.5905999653073799</v>
+        <v>0.02204464188062814</v>
       </c>
       <c r="J28">
-        <v>-0.8249362332962555</v>
+        <v>-0.0146195298881978</v>
       </c>
       <c r="K28">
-        <v>-0.08627661330678531</v>
+        <v>0.003631707560085699</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1389,34 +1389,34 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.2898117923739271</v>
+        <v>-0.1832784607509901</v>
       </c>
       <c r="C29">
-        <v>0.2472075618028061</v>
+        <v>0.09178886571997324</v>
       </c>
       <c r="D29">
-        <v>-0.2244244611472076</v>
+        <v>-0.1128826152102714</v>
       </c>
       <c r="E29">
-        <v>-0.2879661450196591</v>
+        <v>-0.1685522808192348</v>
       </c>
       <c r="F29">
-        <v>-0.2257389424494695</v>
+        <v>-0.06371820871267062</v>
       </c>
       <c r="G29">
-        <v>-0.4453327993349461</v>
+        <v>-0.1874965392168913</v>
       </c>
       <c r="H29">
-        <v>-0.3170064181507803</v>
+        <v>-0.15391785942519</v>
       </c>
       <c r="I29">
-        <v>0.206962496311427</v>
+        <v>0.1209237893698788</v>
       </c>
       <c r="J29">
-        <v>-0.2876938841695718</v>
+        <v>-0.09657664939825876</v>
       </c>
       <c r="K29">
-        <v>0.1325198543878005</v>
+        <v>0.05921299738286642</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1424,34 +1424,34 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.003112511270859998</v>
+        <v>-0.4831128813326738</v>
       </c>
       <c r="C30">
-        <v>0.0008918698973475279</v>
+        <v>0.2530356292056904</v>
       </c>
       <c r="D30">
-        <v>-0.00248961049457918</v>
+        <v>-0.2404130813562899</v>
       </c>
       <c r="E30">
-        <v>-0.002233164664208775</v>
+        <v>-0.4684978587812667</v>
       </c>
       <c r="F30">
-        <v>-0.003154322392336371</v>
+        <v>-0.1474023585676333</v>
       </c>
       <c r="G30">
-        <v>-0.00387543825511915</v>
+        <v>-0.5080324414072483</v>
       </c>
       <c r="H30">
-        <v>-0.002742439792805372</v>
+        <v>-0.437889441372563</v>
       </c>
       <c r="I30">
-        <v>0.001739402239000553</v>
+        <v>0.2270637093910056</v>
       </c>
       <c r="J30">
-        <v>-0.0007441728473810034</v>
+        <v>-0.3215207766604456</v>
       </c>
       <c r="K30">
-        <v>-0.0004984109660907844</v>
+        <v>0.02685983213145566</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1459,34 +1459,34 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.4021647049027901</v>
+        <v>-0.003745608791512655</v>
       </c>
       <c r="C31">
-        <v>0.3419757620124346</v>
+        <v>0.00190230464728656</v>
       </c>
       <c r="D31">
-        <v>-0.219597139022166</v>
+        <v>-0.001886955252269103</v>
       </c>
       <c r="E31">
-        <v>-0.1848978723472612</v>
+        <v>-0.002754903292865984</v>
       </c>
       <c r="F31">
-        <v>-0.2997417157129512</v>
+        <v>-0.002080924134391882</v>
       </c>
       <c r="G31">
-        <v>-0.6437039873490183</v>
+        <v>-0.004108216431919667</v>
       </c>
       <c r="H31">
-        <v>-0.2768649489807207</v>
+        <v>-0.003273409490366897</v>
       </c>
       <c r="I31">
-        <v>0.1591755020500878</v>
+        <v>0.002110554853093367</v>
       </c>
       <c r="J31">
-        <v>-0.1862458007020478</v>
+        <v>-0.001609176358270443</v>
       </c>
       <c r="K31">
-        <v>0.1276132040819055</v>
+        <v>-0.0005927192769403303</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1494,34 +1494,34 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.2681335428682139</v>
+        <v>-0.2304742452070356</v>
       </c>
       <c r="C32">
-        <v>0.2374269955540116</v>
+        <v>0.112571076437134</v>
       </c>
       <c r="D32">
-        <v>-0.1124415090593706</v>
+        <v>-0.09797849044763024</v>
       </c>
       <c r="E32">
-        <v>-0.2831426811444674</v>
+        <v>-0.1156063965964572</v>
       </c>
       <c r="F32">
-        <v>-0.1655951435410793</v>
+        <v>-0.1069861555066841</v>
       </c>
       <c r="G32">
-        <v>-0.3937925824227315</v>
+        <v>-0.204899313669091</v>
       </c>
       <c r="H32">
-        <v>-0.3668688375776614</v>
+        <v>-0.236566277885764</v>
       </c>
       <c r="I32">
-        <v>0.1198755232289157</v>
+        <v>0.1430296745158207</v>
       </c>
       <c r="J32">
-        <v>-0.2027503019028999</v>
+        <v>-0.08078950741042835</v>
       </c>
       <c r="K32">
-        <v>0.1015272928700628</v>
+        <v>-0.01566851381310187</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1529,34 +1529,34 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.00242896568751692</v>
+        <v>-0.03557139754270076</v>
       </c>
       <c r="C33">
-        <v>0.0007986114270025771</v>
+        <v>0.007518349388831634</v>
       </c>
       <c r="D33">
-        <v>-0.002114627023070577</v>
+        <v>-0.02546202641571312</v>
       </c>
       <c r="E33">
-        <v>-0.002196853649625229</v>
+        <v>-0.01525150553510323</v>
       </c>
       <c r="F33">
-        <v>-0.001566988093979525</v>
+        <v>-0.01657651892903672</v>
       </c>
       <c r="G33">
-        <v>-0.003240458481484026</v>
+        <v>-0.03618794262162522</v>
       </c>
       <c r="H33">
-        <v>-0.003195013194187264</v>
+        <v>-0.03846835977279433</v>
       </c>
       <c r="I33">
-        <v>0.002010282683416973</v>
+        <v>0.02180545445663146</v>
       </c>
       <c r="J33">
-        <v>-0.000747807293687635</v>
+        <v>-0.0149994253777527</v>
       </c>
       <c r="K33">
-        <v>0.0007602906549200523</v>
+        <v>0.005167474522136683</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1564,34 +1564,34 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.02179302382339804</v>
+        <v>-0.631647937636894</v>
       </c>
       <c r="C34">
-        <v>0.006539186348443454</v>
+        <v>0.5196836317828084</v>
       </c>
       <c r="D34">
-        <v>-0.01866543783819959</v>
+        <v>-0.4840708087817013</v>
       </c>
       <c r="E34">
-        <v>-0.01510534269218426</v>
+        <v>0.1053901244899756</v>
       </c>
       <c r="F34">
-        <v>-0.0159628594678888</v>
+        <v>-0.257981788986398</v>
       </c>
       <c r="G34">
-        <v>-0.03236359688057149</v>
+        <v>-0.837977427417959</v>
       </c>
       <c r="H34">
-        <v>-0.02853240662451947</v>
+        <v>-0.2367590489489918</v>
       </c>
       <c r="I34">
-        <v>0.02060228886336217</v>
+        <v>0.2711490954600674</v>
       </c>
       <c r="J34">
-        <v>-0.007181367913921685</v>
+        <v>-0.3948662423790082</v>
       </c>
       <c r="K34">
-        <v>-0.0009020391390412167</v>
+        <v>-0.00443056768048998</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1599,34 +1599,34 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.4143094084682919</v>
+        <v>-0.3569629501692922</v>
       </c>
       <c r="C35">
-        <v>0.320684854318059</v>
+        <v>0.3375322218686948</v>
       </c>
       <c r="D35">
-        <v>-0.3236640769944549</v>
+        <v>-0.2637636674642133</v>
       </c>
       <c r="E35">
-        <v>-0.3486232242532274</v>
+        <v>-0.1968292411943558</v>
       </c>
       <c r="F35">
-        <v>-0.290436907040803</v>
+        <v>-0.1683620331157036</v>
       </c>
       <c r="G35">
-        <v>-0.6621921915645773</v>
+        <v>-0.4954300780578051</v>
       </c>
       <c r="H35">
-        <v>-0.2254463288036239</v>
+        <v>-0.1553576738239504</v>
       </c>
       <c r="I35">
-        <v>0.3903844057033408</v>
+        <v>0.2690596563275763</v>
       </c>
       <c r="J35">
-        <v>-0.3714188332685127</v>
+        <v>-0.2185064578809366</v>
       </c>
       <c r="K35">
-        <v>0.05775932087334036</v>
+        <v>0.1483521840910881</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1634,34 +1634,34 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.03235946056195944</v>
+        <v>-0.4113285610085129</v>
       </c>
       <c r="C36">
-        <v>0.01005468800759018</v>
+        <v>0.3273144377406726</v>
       </c>
       <c r="D36">
-        <v>-0.01875380172097367</v>
+        <v>-0.3084602472190424</v>
       </c>
       <c r="E36">
-        <v>-0.01941824789990992</v>
+        <v>-0.2682881873550051</v>
       </c>
       <c r="F36">
-        <v>-0.02356726725500576</v>
+        <v>-0.164995024737653</v>
       </c>
       <c r="G36">
-        <v>-0.03153350116557692</v>
+        <v>-0.590664225943013</v>
       </c>
       <c r="H36">
-        <v>-0.03886481691519204</v>
+        <v>-0.2169749271277208</v>
       </c>
       <c r="I36">
-        <v>0.02572944755380567</v>
+        <v>0.1719513285709266</v>
       </c>
       <c r="J36">
-        <v>-0.007012352409434762</v>
+        <v>-0.2431979228808772</v>
       </c>
       <c r="K36">
-        <v>-0.0002271293579428573</v>
+        <v>0.0129769946348776</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1669,34 +1669,34 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.003015398884579919</v>
+        <v>-0.4193407143544087</v>
       </c>
       <c r="C37">
-        <v>0.001578554090090869</v>
+        <v>0.2354362155462035</v>
       </c>
       <c r="D37">
-        <v>-0.00229668042941178</v>
+        <v>-0.2035024716195592</v>
       </c>
       <c r="E37">
-        <v>-0.002175916130978687</v>
+        <v>-0.374283832435578</v>
       </c>
       <c r="F37">
-        <v>-0.001991428726351568</v>
+        <v>-0.08263332018340666</v>
       </c>
       <c r="G37">
-        <v>-0.003937517369107682</v>
+        <v>-0.3766142889900031</v>
       </c>
       <c r="H37">
-        <v>-0.003036898554732649</v>
+        <v>-0.401262915083924</v>
       </c>
       <c r="I37">
-        <v>0.002219361009628795</v>
+        <v>0.1908617613931433</v>
       </c>
       <c r="J37">
-        <v>-0.0007463047809239409</v>
+        <v>-0.2148579000989529</v>
       </c>
       <c r="K37">
-        <v>0.0004761448332399539</v>
+        <v>0.06761716420897892</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1704,34 +1704,34 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.02200127333651806</v>
+        <v>-0.03037791262509616</v>
       </c>
       <c r="C38">
-        <v>0.01204016516680714</v>
+        <v>0.02098666139986907</v>
       </c>
       <c r="D38">
-        <v>-0.01567346368964816</v>
+        <v>-0.01569138852834993</v>
       </c>
       <c r="E38">
-        <v>-0.01643925318269266</v>
+        <v>-0.01641340060757493</v>
       </c>
       <c r="F38">
-        <v>-0.01886715821955987</v>
+        <v>-0.02044355089007936</v>
       </c>
       <c r="G38">
-        <v>-0.03171627627712405</v>
+        <v>-0.03425663932428352</v>
       </c>
       <c r="H38">
-        <v>-0.03075349933303776</v>
+        <v>-0.02984324339361963</v>
       </c>
       <c r="I38">
-        <v>0.01307657599414427</v>
+        <v>0.01961208705606825</v>
       </c>
       <c r="J38">
-        <v>-0.007177202958979808</v>
+        <v>-0.01479960411662564</v>
       </c>
       <c r="K38">
-        <v>-0.008483553600560094</v>
+        <v>0.002329325398471649</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1739,34 +1739,34 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.00390702975029975</v>
+        <v>-0.4597635203031403</v>
       </c>
       <c r="C39">
-        <v>0.001836510760247576</v>
+        <v>0.4106900057226998</v>
       </c>
       <c r="D39">
-        <v>-0.002276770721676136</v>
+        <v>-0.2368098047926487</v>
       </c>
       <c r="E39">
-        <v>-0.002495611976203474</v>
+        <v>-0.03313415012572776</v>
       </c>
       <c r="F39">
-        <v>-0.002581259690190304</v>
+        <v>-0.1791456545120887</v>
       </c>
       <c r="G39">
-        <v>-0.003954414122585251</v>
+        <v>-0.556250028005148</v>
       </c>
       <c r="H39">
-        <v>-0.003771740624351511</v>
+        <v>-0.3964089510751672</v>
       </c>
       <c r="I39">
-        <v>0.002794971102804078</v>
+        <v>0.2934195894881612</v>
       </c>
       <c r="J39">
-        <v>-0.0007444310397462999</v>
+        <v>-0.3086860501206596</v>
       </c>
       <c r="K39">
-        <v>-0.0001917284443693976</v>
+        <v>-0.03841647203453207</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1774,34 +1774,34 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.003006258968357975</v>
+        <v>-0.02729120409922814</v>
       </c>
       <c r="C40">
-        <v>0.0008975216186955093</v>
+        <v>0.01028187681226816</v>
       </c>
       <c r="D40">
-        <v>-0.00258981610669639</v>
+        <v>-0.02129341891480038</v>
       </c>
       <c r="E40">
-        <v>-0.00194076257970425</v>
+        <v>-0.009214894667514777</v>
       </c>
       <c r="F40">
-        <v>-0.002334202978636983</v>
+        <v>-0.0179176260234486</v>
       </c>
       <c r="G40">
-        <v>-0.00368705236348389</v>
+        <v>-0.03752536395685179</v>
       </c>
       <c r="H40">
-        <v>-0.002959809108742718</v>
+        <v>-0.02467029372199923</v>
       </c>
       <c r="I40">
-        <v>0.002654645421180652</v>
+        <v>0.0205849823807829</v>
       </c>
       <c r="J40">
-        <v>-0.000745741626239466</v>
+        <v>-0.01523807297076423</v>
       </c>
       <c r="K40">
-        <v>-0.0002110421387352804</v>
+        <v>-0.003620122964125695</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1809,34 +1809,34 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.3690106932335849</v>
+        <v>-0.003006178041228332</v>
       </c>
       <c r="C41">
-        <v>0.1854944676509723</v>
+        <v>0.0005275940288051523</v>
       </c>
       <c r="D41">
-        <v>-0.2093206172728738</v>
+        <v>-0.002425521647873422</v>
       </c>
       <c r="E41">
-        <v>-0.282827852088292</v>
+        <v>-0.00226776649979082</v>
       </c>
       <c r="F41">
-        <v>-0.1514947371161238</v>
+        <v>-0.001418096202882056</v>
       </c>
       <c r="G41">
-        <v>-0.3797531213891508</v>
+        <v>-0.003641313500615539</v>
       </c>
       <c r="H41">
-        <v>-0.3911622348994908</v>
+        <v>-0.003265596802282544</v>
       </c>
       <c r="I41">
-        <v>0.3017919285874972</v>
+        <v>0.001597323281249142</v>
       </c>
       <c r="J41">
-        <v>-0.1549898772737628</v>
+        <v>-0.001613230080625129</v>
       </c>
       <c r="K41">
-        <v>0.09953985175056795</v>
+        <v>0.0009619298105124473</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1844,34 +1844,34 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.003689677185908611</v>
+        <v>-0.003001737564981237</v>
       </c>
       <c r="C42">
-        <v>0.001006538221591533</v>
+        <v>0.001034759504030992</v>
       </c>
       <c r="D42">
-        <v>-0.002907338440650966</v>
+        <v>-0.002311830353021649</v>
       </c>
       <c r="E42">
-        <v>-0.002355314040352392</v>
+        <v>-0.002302118068293363</v>
       </c>
       <c r="F42">
-        <v>-0.002237784357516008</v>
+        <v>-0.001946001099937385</v>
       </c>
       <c r="G42">
-        <v>-0.0040873462186373</v>
+        <v>-0.003459827314107512</v>
       </c>
       <c r="H42">
-        <v>-0.003474128957413932</v>
+        <v>-0.003228606256292371</v>
       </c>
       <c r="I42">
-        <v>0.002668372406771425</v>
+        <v>0.001673956838992488</v>
       </c>
       <c r="J42">
-        <v>-0.0007446781794466833</v>
+        <v>-0.00160858233518489</v>
       </c>
       <c r="K42">
-        <v>-0.0003632698105392132</v>
+        <v>-9.86053652497167E-05</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1879,34 +1879,34 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.002394725118351637</v>
+        <v>-0.5538267199557925</v>
       </c>
       <c r="C43">
-        <v>0.001085090134057852</v>
+        <v>0.38403515459895</v>
       </c>
       <c r="D43">
-        <v>-0.001340178495054243</v>
+        <v>-0.2130576424419618</v>
       </c>
       <c r="E43">
-        <v>-0.001334321477832539</v>
+        <v>-0.3451650119996401</v>
       </c>
       <c r="F43">
-        <v>-0.001824316451148765</v>
+        <v>-0.1848666569459256</v>
       </c>
       <c r="G43">
-        <v>-0.003335226282462826</v>
+        <v>-0.632926252679928</v>
       </c>
       <c r="H43">
-        <v>-0.003444859366590383</v>
+        <v>-0.3579841100090433</v>
       </c>
       <c r="I43">
-        <v>0.002414755834289611</v>
+        <v>0.2201083200001814</v>
       </c>
       <c r="J43">
-        <v>-0.0007458670476914257</v>
+        <v>-0.2233247027383155</v>
       </c>
       <c r="K43">
-        <v>-0.0005204777756714881</v>
+        <v>-0.09112096179776946</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1914,34 +1914,34 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.002583889892151702</v>
+        <v>-0.003734453668918191</v>
       </c>
       <c r="C44">
-        <v>0.0009025307084597074</v>
+        <v>0.001615870346655176</v>
       </c>
       <c r="D44">
-        <v>-0.002178166275531238</v>
+        <v>-0.002029624715966246</v>
       </c>
       <c r="E44">
-        <v>-0.001993336105243892</v>
+        <v>-0.002407065596151677</v>
       </c>
       <c r="F44">
-        <v>-0.001712373152235269</v>
+        <v>-0.001515117411678766</v>
       </c>
       <c r="G44">
-        <v>-0.003774127620037929</v>
+        <v>-0.003724685068317878</v>
       </c>
       <c r="H44">
-        <v>-0.003183011765872959</v>
+        <v>-0.003829430928862748</v>
       </c>
       <c r="I44">
-        <v>0.001760034653292764</v>
+        <v>0.002752245906677282</v>
       </c>
       <c r="J44">
-        <v>-0.0007469489779601695</v>
+        <v>-0.001612765238498514</v>
       </c>
       <c r="K44">
-        <v>1.483966862929354E-05</v>
+        <v>-0.0006024017160920804</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1949,34 +1949,34 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.02312839563466561</v>
+        <v>-0.003674306687516893</v>
       </c>
       <c r="C45">
-        <v>0.01119557897946253</v>
+        <v>0.001493647112627744</v>
       </c>
       <c r="D45">
-        <v>-0.01527669345424752</v>
+        <v>-0.002145309363781227</v>
       </c>
       <c r="E45">
-        <v>-0.01956921720953651</v>
+        <v>-0.002734745734612779</v>
       </c>
       <c r="F45">
-        <v>-0.02198405109077984</v>
+        <v>-0.002271936046100506</v>
       </c>
       <c r="G45">
-        <v>-0.03244118408136937</v>
+        <v>-0.003933999913392552</v>
       </c>
       <c r="H45">
-        <v>-0.02882099044755593</v>
+        <v>-0.003223173717690191</v>
       </c>
       <c r="I45">
-        <v>0.01517706382345016</v>
+        <v>0.00222194559920783</v>
       </c>
       <c r="J45">
-        <v>-0.007122881053752491</v>
+        <v>-0.001609805874598072</v>
       </c>
       <c r="K45">
-        <v>0.002995745203086072</v>
+        <v>-0.0003394787375161809</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1984,34 +1984,34 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.002877444975910329</v>
+        <v>-0.02809686514819046</v>
       </c>
       <c r="C46">
-        <v>0.0008365005535055385</v>
+        <v>0.01518589675983642</v>
       </c>
       <c r="D46">
-        <v>-0.001967383388667844</v>
+        <v>-0.01540457990716025</v>
       </c>
       <c r="E46">
-        <v>-0.001865256339382418</v>
+        <v>-0.02200783984851014</v>
       </c>
       <c r="F46">
-        <v>-0.001743563829395358</v>
+        <v>-0.01552089310700202</v>
       </c>
       <c r="G46">
-        <v>-0.003350301582675764</v>
+        <v>-0.03520207593988635</v>
       </c>
       <c r="H46">
-        <v>-0.003816639799738442</v>
+        <v>-0.02635279625014333</v>
       </c>
       <c r="I46">
-        <v>0.002710994569470344</v>
+        <v>0.01955623761241806</v>
       </c>
       <c r="J46">
-        <v>-0.0007468377729499654</v>
+        <v>-0.01491063616393558</v>
       </c>
       <c r="K46">
-        <v>0.0003102126633242469</v>
+        <v>0.005424222688701138</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2019,34 +2019,34 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.002446467708648478</v>
+        <v>-0.3786762577044775</v>
       </c>
       <c r="C47">
-        <v>0.001940766638180591</v>
+        <v>0.192125014729599</v>
       </c>
       <c r="D47">
-        <v>-0.001433068725953291</v>
+        <v>-0.2327820142286885</v>
       </c>
       <c r="E47">
-        <v>-0.001804216683315048</v>
+        <v>-0.315623731364738</v>
       </c>
       <c r="F47">
-        <v>-0.001974762276148468</v>
+        <v>-0.1110238558492699</v>
       </c>
       <c r="G47">
-        <v>-0.003687003714556332</v>
+        <v>-0.4681824509467212</v>
       </c>
       <c r="H47">
-        <v>-0.002867801457952343</v>
+        <v>-0.3062853346807518</v>
       </c>
       <c r="I47">
-        <v>0.001740737395914643</v>
+        <v>0.1634134660289967</v>
       </c>
       <c r="J47">
-        <v>-0.0007463201967676561</v>
+        <v>-0.2126872686308848</v>
       </c>
       <c r="K47">
-        <v>-0.0003722574372263956</v>
+        <v>0.05462082902868298</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2054,34 +2054,34 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.1741809867449472</v>
+        <v>-0.2051540831324682</v>
       </c>
       <c r="C48">
-        <v>0.1065045650258634</v>
+        <v>0.1400149057783285</v>
       </c>
       <c r="D48">
-        <v>-0.1104984355720794</v>
+        <v>-0.1110678281031126</v>
       </c>
       <c r="E48">
-        <v>-0.0862022507958107</v>
+        <v>-0.1305944816265641</v>
       </c>
       <c r="F48">
-        <v>-0.08925096654291388</v>
+        <v>-0.1190936100286174</v>
       </c>
       <c r="G48">
-        <v>-0.2264062874034036</v>
+        <v>-0.2365798865644063</v>
       </c>
       <c r="H48">
-        <v>-0.2016080901528485</v>
+        <v>-0.1099772112173369</v>
       </c>
       <c r="I48">
-        <v>0.1101567418288409</v>
+        <v>0.1205313846222224</v>
       </c>
       <c r="J48">
-        <v>-0.0567849553525932</v>
+        <v>-0.08662507716627614</v>
       </c>
       <c r="K48">
-        <v>0.04419934597205846</v>
+        <v>-0.02269475005041464</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2089,34 +2089,34 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.4679978530692798</v>
+        <v>-0.03287541065767629</v>
       </c>
       <c r="C49">
-        <v>0.2608255703199602</v>
+        <v>0.01587353081306739</v>
       </c>
       <c r="D49">
-        <v>-0.145660031586672</v>
+        <v>-0.01523950312511692</v>
       </c>
       <c r="E49">
-        <v>-0.419379197515493</v>
+        <v>-0.02458667962888008</v>
       </c>
       <c r="F49">
-        <v>-0.3283821210030933</v>
+        <v>-0.01563626787457711</v>
       </c>
       <c r="G49">
-        <v>-0.3619350520723559</v>
+        <v>-0.03257790452076556</v>
       </c>
       <c r="H49">
-        <v>-0.3935178891515195</v>
+        <v>-0.03241472662541767</v>
       </c>
       <c r="I49">
-        <v>0.4417844819272861</v>
+        <v>0.0266924619696969</v>
       </c>
       <c r="J49">
-        <v>-0.1672151979687425</v>
+        <v>-0.01515977525847248</v>
       </c>
       <c r="K49">
-        <v>0.2290430146235216</v>
+        <v>-0.00376575744285933</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2124,34 +2124,34 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.3628496305076217</v>
+        <v>-0.5781201994951966</v>
       </c>
       <c r="C50">
-        <v>0.4111576765684599</v>
+        <v>0.211089505540345</v>
       </c>
       <c r="D50">
-        <v>-0.4631455947481061</v>
+        <v>-0.2939399431745107</v>
       </c>
       <c r="E50">
-        <v>-0.1588849842803326</v>
+        <v>-0.5165112641332036</v>
       </c>
       <c r="F50">
-        <v>-0.3866513066137522</v>
+        <v>-0.2563029935851804</v>
       </c>
       <c r="G50">
-        <v>-0.8279862249338092</v>
+        <v>-0.5477747450320513</v>
       </c>
       <c r="H50">
-        <v>0.1165061247855887</v>
+        <v>-0.42138656918602</v>
       </c>
       <c r="I50">
-        <v>0.3377796536508821</v>
+        <v>0.1691912197967403</v>
       </c>
       <c r="J50">
-        <v>-0.4466110875780824</v>
+        <v>-0.1763751228443549</v>
       </c>
       <c r="K50">
-        <v>-0.01998402755222264</v>
+        <v>-0.02623423761889632</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2159,34 +2159,34 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.6026192257487736</v>
+        <v>-0.210265862759417</v>
       </c>
       <c r="C51">
-        <v>0.5123043569711756</v>
+        <v>0.06834266461509944</v>
       </c>
       <c r="D51">
-        <v>-0.2184781344908573</v>
+        <v>-0.1052968989683722</v>
       </c>
       <c r="E51">
-        <v>-0.3159283056164842</v>
+        <v>-0.1303308265428512</v>
       </c>
       <c r="F51">
-        <v>-0.4106597185432646</v>
+        <v>-0.1043904921117985</v>
       </c>
       <c r="G51">
-        <v>-0.785855456362833</v>
+        <v>-0.1960285843813096</v>
       </c>
       <c r="H51">
-        <v>-0.3324820692706785</v>
+        <v>-0.2134753107882091</v>
       </c>
       <c r="I51">
-        <v>0.3790411426347532</v>
+        <v>0.1343157695438993</v>
       </c>
       <c r="J51">
-        <v>-0.2731775947464427</v>
+        <v>-0.09266964296222598</v>
       </c>
       <c r="K51">
-        <v>0.3077904816972338</v>
+        <v>-0.03661871727959599</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2194,34 +2194,34 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.1459759440932067</v>
+        <v>-0.003482946416946276</v>
       </c>
       <c r="C52">
-        <v>0.03981174535386701</v>
+        <v>0.0007570840940614384</v>
       </c>
       <c r="D52">
-        <v>-0.141416727593529</v>
+        <v>-0.002374945704695404</v>
       </c>
       <c r="E52">
-        <v>-0.1437812842303771</v>
+        <v>-0.002444110712561108</v>
       </c>
       <c r="F52">
-        <v>-0.06468707457657719</v>
+        <v>-0.001351423705914867</v>
       </c>
       <c r="G52">
-        <v>-0.1963110283763737</v>
+        <v>-0.003861906770683098</v>
       </c>
       <c r="H52">
-        <v>-0.1691111386355392</v>
+        <v>-0.00372984004169782</v>
       </c>
       <c r="I52">
-        <v>0.09029829080826952</v>
+        <v>0.00215596556900813</v>
       </c>
       <c r="J52">
-        <v>-0.05254019840923019</v>
+        <v>-0.001613540727466408</v>
       </c>
       <c r="K52">
-        <v>-0.01790761644765568</v>
+        <v>0.0003938432520950854</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2229,34 +2229,34 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.003066246044117783</v>
+        <v>-0.3744710722105041</v>
       </c>
       <c r="C53">
-        <v>0.001582795204435069</v>
+        <v>0.2981924662168805</v>
       </c>
       <c r="D53">
-        <v>-0.001995513427621147</v>
+        <v>-0.2284656541240075</v>
       </c>
       <c r="E53">
-        <v>-0.002219592959055707</v>
+        <v>-0.2373936163700526</v>
       </c>
       <c r="F53">
-        <v>-0.001755992371530194</v>
+        <v>-0.1128906164350099</v>
       </c>
       <c r="G53">
-        <v>-0.00337620101877718</v>
+        <v>-0.6581514509292815</v>
       </c>
       <c r="H53">
-        <v>-0.003669321669957841</v>
+        <v>-0.08400443126291214</v>
       </c>
       <c r="I53">
-        <v>0.002592444189959683</v>
+        <v>0.1343616614086973</v>
       </c>
       <c r="J53">
-        <v>-0.000746892495963399</v>
+        <v>-0.2729521711907324</v>
       </c>
       <c r="K53">
-        <v>0.001006152473098339</v>
+        <v>0.1222075055673185</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2264,34 +2264,34 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.4410410305957304</v>
+        <v>-0.3550170116060802</v>
       </c>
       <c r="C54">
-        <v>0.500408714339406</v>
+        <v>0.3125894713007341</v>
       </c>
       <c r="D54">
-        <v>-0.1846491762766826</v>
+        <v>-0.2294977194585145</v>
       </c>
       <c r="E54">
-        <v>-0.2536401001384732</v>
+        <v>-0.2122183783227428</v>
       </c>
       <c r="F54">
-        <v>-0.3385149485015821</v>
+        <v>-0.1866127560573274</v>
       </c>
       <c r="G54">
-        <v>-0.6100824386288414</v>
+        <v>-0.4780768539664206</v>
       </c>
       <c r="H54">
-        <v>-0.4434699998351338</v>
+        <v>-0.1964067805687834</v>
       </c>
       <c r="I54">
-        <v>0.2218047828046972</v>
+        <v>0.110957766633969</v>
       </c>
       <c r="J54">
-        <v>-0.3339735082011274</v>
+        <v>-0.2398961881318873</v>
       </c>
       <c r="K54">
-        <v>0.1434210890220194</v>
+        <v>-0.05097761123341547</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2299,34 +2299,34 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.1993315498730651</v>
+        <v>-0.003062035104327844</v>
       </c>
       <c r="C55">
-        <v>0.1368325373316282</v>
+        <v>0.002195856307776484</v>
       </c>
       <c r="D55">
-        <v>-0.08863903635107243</v>
+        <v>-0.001508880568885241</v>
       </c>
       <c r="E55">
-        <v>-0.1552110937942328</v>
+        <v>-0.001695862235285705</v>
       </c>
       <c r="F55">
-        <v>-0.1355498358991978</v>
+        <v>-0.002073500148847242</v>
       </c>
       <c r="G55">
-        <v>-0.2017266817769887</v>
+        <v>-0.003673041578480863</v>
       </c>
       <c r="H55">
-        <v>-0.1723948627588173</v>
+        <v>-0.002912671844354925</v>
       </c>
       <c r="I55">
-        <v>0.1244822850193008</v>
+        <v>0.002288036867606006</v>
       </c>
       <c r="J55">
-        <v>-0.0424603765713815</v>
+        <v>-0.001610931518973186</v>
       </c>
       <c r="K55">
-        <v>-0.04678514557389366</v>
+        <v>0.0003788428905207261</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2334,34 +2334,34 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.223429248779781</v>
+        <v>-0.5290886846980164</v>
       </c>
       <c r="C56">
-        <v>0.2484419903063678</v>
+        <v>0.2967179423910173</v>
       </c>
       <c r="D56">
-        <v>-0.1533865899597659</v>
+        <v>-0.251987163847043</v>
       </c>
       <c r="E56">
-        <v>-0.2218088835746453</v>
+        <v>-0.4099702714737486</v>
       </c>
       <c r="F56">
-        <v>0.02140860319798282</v>
+        <v>-0.1603148207796004</v>
       </c>
       <c r="G56">
-        <v>-0.4251700761389547</v>
+        <v>-0.5088877492270536</v>
       </c>
       <c r="H56">
-        <v>-0.2527672884814856</v>
+        <v>-0.4924282439370786</v>
       </c>
       <c r="I56">
-        <v>0.1653527863255513</v>
+        <v>0.3404080960042406</v>
       </c>
       <c r="J56">
-        <v>-0.2086234256707875</v>
+        <v>-0.3291233308359493</v>
       </c>
       <c r="K56">
-        <v>-0.06466611254593813</v>
+        <v>-0.1120518737048122</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2369,34 +2369,34 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.002367869089911581</v>
+        <v>-0.3790592176768064</v>
       </c>
       <c r="C57">
-        <v>0.001359945128330419</v>
+        <v>0.1416234938212208</v>
       </c>
       <c r="D57">
-        <v>-0.00193245653901165</v>
+        <v>-0.2113114004138519</v>
       </c>
       <c r="E57">
-        <v>-0.002520384447327976</v>
+        <v>-0.301222416804672</v>
       </c>
       <c r="F57">
-        <v>-0.001869413041299282</v>
+        <v>-0.161110585502889</v>
       </c>
       <c r="G57">
-        <v>-0.003249588894620247</v>
+        <v>-0.3724624788871783</v>
       </c>
       <c r="H57">
-        <v>-0.002840285634881384</v>
+        <v>-0.3074155584311956</v>
       </c>
       <c r="I57">
-        <v>0.001630857608092168</v>
+        <v>0.3072029144022587</v>
       </c>
       <c r="J57">
-        <v>-0.0007459825761073585</v>
+        <v>-0.1719622223633929</v>
       </c>
       <c r="K57">
-        <v>-0.0003067535600616713</v>
+        <v>0.08350773247393115</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2404,34 +2404,34 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.002793201830122557</v>
+        <v>-0.1803686544288918</v>
       </c>
       <c r="C58">
-        <v>0.0009870850108795225</v>
+        <v>0.0973935168854702</v>
       </c>
       <c r="D58">
-        <v>-0.002349685288809408</v>
+        <v>-0.1142951510702723</v>
       </c>
       <c r="E58">
-        <v>-0.002145208991073331</v>
+        <v>-0.1253756099773029</v>
       </c>
       <c r="F58">
-        <v>-0.001689681960103641</v>
+        <v>-0.08890658024313675</v>
       </c>
       <c r="G58">
-        <v>-0.003617729684944991</v>
+        <v>-0.2165800216130767</v>
       </c>
       <c r="H58">
-        <v>-0.003308323984071763</v>
+        <v>-0.1576950209924058</v>
       </c>
       <c r="I58">
-        <v>0.002211083768527356</v>
+        <v>0.1011778236907703</v>
       </c>
       <c r="J58">
-        <v>-0.000746339968075218</v>
+        <v>-0.09388688967466584</v>
       </c>
       <c r="K58">
-        <v>-0.0003371571748726186</v>
+        <v>-0.03336231386236771</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2439,34 +2439,34 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.1414938327273648</v>
+        <v>-0.2919577492342593</v>
       </c>
       <c r="C59">
-        <v>0.1136856605436809</v>
+        <v>0.1478552474803017</v>
       </c>
       <c r="D59">
-        <v>-0.06647730230093264</v>
+        <v>-0.1781612517755142</v>
       </c>
       <c r="E59">
-        <v>-0.1073827045804208</v>
+        <v>-0.1895842110255432</v>
       </c>
       <c r="F59">
-        <v>-0.1138612096386413</v>
+        <v>-0.2035168292297402</v>
       </c>
       <c r="G59">
-        <v>-0.1918269032133535</v>
+        <v>-0.3406617082117008</v>
       </c>
       <c r="H59">
-        <v>-0.1392790091446046</v>
+        <v>-0.2546407936139206</v>
       </c>
       <c r="I59">
-        <v>0.1466210317140288</v>
+        <v>0.2292225067934253</v>
       </c>
       <c r="J59">
-        <v>-0.05558967202361877</v>
+        <v>-0.1496384973007196</v>
       </c>
       <c r="K59">
-        <v>0.009661556817314123</v>
+        <v>-0.07253036159591417</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2474,34 +2474,34 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.3844742795308768</v>
+        <v>-0.003304706933175824</v>
       </c>
       <c r="C60">
-        <v>0.2526259115848351</v>
+        <v>0.001822790650388192</v>
       </c>
       <c r="D60">
-        <v>-0.2575320008458249</v>
+        <v>-0.001496508721033897</v>
       </c>
       <c r="E60">
-        <v>-0.1993971908628386</v>
+        <v>-0.002313280438904834</v>
       </c>
       <c r="F60">
-        <v>-0.114046364571558</v>
+        <v>-0.001664111928807075</v>
       </c>
       <c r="G60">
-        <v>-0.501186204657023</v>
+        <v>-0.003568383236452131</v>
       </c>
       <c r="H60">
-        <v>-0.3474950186566582</v>
+        <v>-0.003513193902417641</v>
       </c>
       <c r="I60">
-        <v>0.2384439764568769</v>
+        <v>0.002514006875527315</v>
       </c>
       <c r="J60">
-        <v>-0.1397828774152112</v>
+        <v>-0.001611946086702503</v>
       </c>
       <c r="K60">
-        <v>-0.06643326018540409</v>
+        <v>-0.0001032655237628779</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2509,34 +2509,34 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.2214688677571016</v>
+        <v>-0.7539251144550227</v>
       </c>
       <c r="C61">
-        <v>0.08662719310026364</v>
+        <v>0.6302327173574752</v>
       </c>
       <c r="D61">
-        <v>-0.1472034415855234</v>
+        <v>-0.4014934059454811</v>
       </c>
       <c r="E61">
-        <v>-0.1382738356513964</v>
+        <v>-0.05045010166390097</v>
       </c>
       <c r="F61">
-        <v>-0.1074088644828544</v>
+        <v>-0.2699810014086651</v>
       </c>
       <c r="G61">
-        <v>-0.2198325310883701</v>
+        <v>-0.7984260927066801</v>
       </c>
       <c r="H61">
-        <v>-0.2045896171163923</v>
+        <v>-0.5185786604577689</v>
       </c>
       <c r="I61">
-        <v>0.1439679488681496</v>
+        <v>0.422541809628949</v>
       </c>
       <c r="J61">
-        <v>-0.04877740383764657</v>
+        <v>-0.1865232077862505</v>
       </c>
       <c r="K61">
-        <v>-0.00454229046795251</v>
+        <v>0.2714147559516322</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2544,34 +2544,34 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.2014830438063153</v>
+        <v>-0.1902693932156984</v>
       </c>
       <c r="C62">
-        <v>0.1640366681557335</v>
+        <v>0.03891141139604701</v>
       </c>
       <c r="D62">
-        <v>-0.06322373800917001</v>
+        <v>-0.1300575010454542</v>
       </c>
       <c r="E62">
-        <v>-0.2594480025700473</v>
+        <v>-0.1155191763039287</v>
       </c>
       <c r="F62">
-        <v>-0.1853871127252146</v>
+        <v>-0.08264234130798925</v>
       </c>
       <c r="G62">
-        <v>-0.3452819879953419</v>
+        <v>-0.1914049064222767</v>
       </c>
       <c r="H62">
-        <v>-0.2737303398451579</v>
+        <v>-0.1833620864402427</v>
       </c>
       <c r="I62">
-        <v>0.215697890952831</v>
+        <v>0.1507011245845495</v>
       </c>
       <c r="J62">
-        <v>-0.1927932076510605</v>
+        <v>-0.1026193138981525</v>
       </c>
       <c r="K62">
-        <v>0.05689870069351945</v>
+        <v>0.004351513167613139</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2579,34 +2579,34 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.163297160789292</v>
+        <v>-0.8089409487886128</v>
       </c>
       <c r="C63">
-        <v>0.1955485723423643</v>
+        <v>0.4052849839564481</v>
       </c>
       <c r="D63">
-        <v>-0.2641401518006652</v>
+        <v>-0.227754587402455</v>
       </c>
       <c r="E63">
-        <v>-0.3938354940601029</v>
+        <v>-0.1156675907726168</v>
       </c>
       <c r="F63">
-        <v>-0.1764642335624831</v>
+        <v>-0.1717917784948916</v>
       </c>
       <c r="G63">
-        <v>-0.4192236914776694</v>
+        <v>-0.6896872927059648</v>
       </c>
       <c r="H63">
-        <v>-0.3133905158987639</v>
+        <v>-0.8824819171438764</v>
       </c>
       <c r="I63">
-        <v>0.3421707930380882</v>
+        <v>0.4476671091512607</v>
       </c>
       <c r="J63">
-        <v>-0.8359547662128471</v>
+        <v>-0.2488376701110593</v>
       </c>
       <c r="K63">
-        <v>-0.1931012027160504</v>
+        <v>0.09019343136809652</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2614,34 +2614,34 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.1371954193614287</v>
+        <v>-0.002806266390490788</v>
       </c>
       <c r="C64">
-        <v>0.08626967976034006</v>
+        <v>0.001296319194402852</v>
       </c>
       <c r="D64">
-        <v>-0.09413152395501159</v>
+        <v>-0.001964213539127543</v>
       </c>
       <c r="E64">
-        <v>-0.0893587394523251</v>
+        <v>-0.002014264223584958</v>
       </c>
       <c r="F64">
-        <v>-0.1076585970633966</v>
+        <v>-0.001664329760324241</v>
       </c>
       <c r="G64">
-        <v>-0.2076909777163986</v>
+        <v>-0.0036537345011927</v>
       </c>
       <c r="H64">
-        <v>-0.1317479943670073</v>
+        <v>-0.002886422070743276</v>
       </c>
       <c r="I64">
-        <v>0.1438105118295141</v>
+        <v>0.001550034907077169</v>
       </c>
       <c r="J64">
-        <v>-0.05633954229769736</v>
+        <v>-0.001610893582806263</v>
       </c>
       <c r="K64">
-        <v>-0.02468714364037155</v>
+        <v>0.001185715231427051</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2649,34 +2649,34 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.5981172759870154</v>
+        <v>-0.003294695911083125</v>
       </c>
       <c r="C65">
-        <v>0.5418610089632944</v>
+        <v>0.001367590650172108</v>
       </c>
       <c r="D65">
-        <v>-0.4240700595955649</v>
+        <v>-0.001540840316638735</v>
       </c>
       <c r="E65">
-        <v>-0.3081744404363662</v>
+        <v>-0.001336598682690132</v>
       </c>
       <c r="F65">
-        <v>-0.313210863221189</v>
+        <v>-0.002144345607662494</v>
       </c>
       <c r="G65">
-        <v>-1.005833794943917</v>
+        <v>-0.003692078653061855</v>
       </c>
       <c r="H65">
-        <v>-0.150375580577868</v>
+        <v>-0.003680943964459482</v>
       </c>
       <c r="I65">
-        <v>0.3305719148981243</v>
+        <v>0.002674328020432865</v>
       </c>
       <c r="J65">
-        <v>-0.5344915400717422</v>
+        <v>-0.001609580617045789</v>
       </c>
       <c r="K65">
-        <v>0.1160117479830314</v>
+        <v>0.0002481039107002039</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2684,34 +2684,34 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.1326212411941885</v>
+        <v>-0.4488227028898432</v>
       </c>
       <c r="C66">
-        <v>0.06166112513242519</v>
+        <v>0.3036274074122994</v>
       </c>
       <c r="D66">
-        <v>-0.1251543385465541</v>
+        <v>-0.1288555051951081</v>
       </c>
       <c r="E66">
-        <v>-0.09859337276685773</v>
+        <v>-0.204660409395189</v>
       </c>
       <c r="F66">
-        <v>-0.1076438545223563</v>
+        <v>-0.2999115840287466</v>
       </c>
       <c r="G66">
-        <v>-0.2310646619809825</v>
+        <v>-0.4480785935567742</v>
       </c>
       <c r="H66">
-        <v>-0.09979643043280527</v>
+        <v>-0.3262753800010239</v>
       </c>
       <c r="I66">
-        <v>0.1066122970204376</v>
+        <v>0.5165750290786478</v>
       </c>
       <c r="J66">
-        <v>-0.04866716436099881</v>
+        <v>-0.2985982808638061</v>
       </c>
       <c r="K66">
-        <v>-0.002919971189669635</v>
+        <v>-0.2188283750306436</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2719,34 +2719,34 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.4595466762748681</v>
+        <v>-0.1982405725059983</v>
       </c>
       <c r="C67">
-        <v>0.5527107113433166</v>
+        <v>0.1272475306199209</v>
       </c>
       <c r="D67">
-        <v>-0.3676410538777229</v>
+        <v>-0.1197773958508117</v>
       </c>
       <c r="E67">
-        <v>-0.01553545968304335</v>
+        <v>-0.1082814210123595</v>
       </c>
       <c r="F67">
-        <v>-0.388991321424151</v>
+        <v>-0.0918856158655279</v>
       </c>
       <c r="G67">
-        <v>-0.6846341776334288</v>
+        <v>-0.2284852559822874</v>
       </c>
       <c r="H67">
-        <v>-0.1603593013490862</v>
+        <v>-0.1740527363895265</v>
       </c>
       <c r="I67">
-        <v>0.5672081503531644</v>
+        <v>0.1093582138315605</v>
       </c>
       <c r="J67">
-        <v>-0.3907883859296388</v>
+        <v>-0.08371447713987629</v>
       </c>
       <c r="K67">
-        <v>0.004118638959979709</v>
+        <v>0.02664885988540949</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2754,34 +2754,34 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.3559084658883611</v>
+        <v>-0.02610066934385379</v>
       </c>
       <c r="C68">
-        <v>0.4098191629280568</v>
+        <v>0.006652256676005864</v>
       </c>
       <c r="D68">
-        <v>-0.2673319642783403</v>
+        <v>-0.02088915897076358</v>
       </c>
       <c r="E68">
-        <v>-0.1071355540294889</v>
+        <v>-0.01469377104129365</v>
       </c>
       <c r="F68">
-        <v>-0.2528895135840226</v>
+        <v>-0.01516434545892235</v>
       </c>
       <c r="G68">
-        <v>-0.5732976779765439</v>
+        <v>-0.03413417210929563</v>
       </c>
       <c r="H68">
-        <v>-0.0698673587302697</v>
+        <v>-0.02965699065353986</v>
       </c>
       <c r="I68">
-        <v>0.2262121731006055</v>
+        <v>0.01689135579529836</v>
       </c>
       <c r="J68">
-        <v>-0.1435451215869991</v>
+        <v>-0.01522563679320518</v>
       </c>
       <c r="K68">
-        <v>0.04369317775268332</v>
+        <v>0.00335708124437137</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2789,34 +2789,34 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.002921833897277598</v>
+        <v>-0.5169403578199327</v>
       </c>
       <c r="C69">
-        <v>0.001147804485987752</v>
+        <v>0.443533881472427</v>
       </c>
       <c r="D69">
-        <v>-0.002434980998401548</v>
+        <v>-0.2144435530145851</v>
       </c>
       <c r="E69">
-        <v>-0.002766079125080747</v>
+        <v>-0.1080393650691706</v>
       </c>
       <c r="F69">
-        <v>-0.001880026135496147</v>
+        <v>-0.1166182393706583</v>
       </c>
       <c r="G69">
-        <v>-0.003593173555109505</v>
+        <v>-0.7485879968165164</v>
       </c>
       <c r="H69">
-        <v>-0.002957991015530508</v>
+        <v>-0.4612752815330642</v>
       </c>
       <c r="I69">
-        <v>0.002199389471210434</v>
+        <v>0.2032881111601737</v>
       </c>
       <c r="J69">
-        <v>-0.0007457511492231113</v>
+        <v>-0.3929439068668163</v>
       </c>
       <c r="K69">
-        <v>-0.0002383273079544178</v>
+        <v>0.01973807460350602</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2824,34 +2824,34 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.3809936148760827</v>
+        <v>-0.212036159795792</v>
       </c>
       <c r="C70">
-        <v>0.3397914458856349</v>
+        <v>0.09294295732244995</v>
       </c>
       <c r="D70">
-        <v>-0.1716923031431502</v>
+        <v>-0.1167233819596841</v>
       </c>
       <c r="E70">
-        <v>-0.09451635795628711</v>
+        <v>-0.1373849990394338</v>
       </c>
       <c r="F70">
-        <v>-0.1633502453690788</v>
+        <v>-0.09302595997375956</v>
       </c>
       <c r="G70">
-        <v>-0.5585524098263694</v>
+        <v>-0.209700811547396</v>
       </c>
       <c r="H70">
-        <v>-0.3158845492357912</v>
+        <v>-0.1972139976977775</v>
       </c>
       <c r="I70">
-        <v>0.2934031865607689</v>
+        <v>0.1352094674536837</v>
       </c>
       <c r="J70">
-        <v>-0.1625812647485123</v>
+        <v>-0.09240387209375452</v>
       </c>
       <c r="K70">
-        <v>0.0698290097580324</v>
+        <v>-0.01505782900688908</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2859,34 +2859,34 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.3095711432738235</v>
+        <v>-0.003675148906383902</v>
       </c>
       <c r="C71">
-        <v>0.1480665333755255</v>
+        <v>5.286174215608703E-05</v>
       </c>
       <c r="D71">
-        <v>-0.2395255792568243</v>
+        <v>-0.002403002871219277</v>
       </c>
       <c r="E71">
-        <v>-0.2134814543412587</v>
+        <v>-0.002110759388997315</v>
       </c>
       <c r="F71">
-        <v>-0.2410875783807396</v>
+        <v>-0.0026274453363429</v>
       </c>
       <c r="G71">
-        <v>-0.438742412324758</v>
+        <v>-0.003935650632006561</v>
       </c>
       <c r="H71">
-        <v>-0.2861456702054558</v>
+        <v>-0.003715595666625081</v>
       </c>
       <c r="I71">
-        <v>0.2140859193270226</v>
+        <v>0.001990732676972113</v>
       </c>
       <c r="J71">
-        <v>-0.1610527145035249</v>
+        <v>-0.001611053918541187</v>
       </c>
       <c r="K71">
-        <v>0.0585839124822231</v>
+        <v>-0.000244638952733772</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2894,34 +2894,34 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.002781363244089406</v>
+        <v>-0.003200372985435024</v>
       </c>
       <c r="C72">
-        <v>0.0007753819618382108</v>
+        <v>0.000941954678074948</v>
       </c>
       <c r="D72">
-        <v>-0.002002931503658398</v>
+        <v>-0.002355173899850067</v>
       </c>
       <c r="E72">
-        <v>-0.002019088956634554</v>
+        <v>-0.001939308806924051</v>
       </c>
       <c r="F72">
-        <v>-0.00214875324258502</v>
+        <v>-0.001796131448627673</v>
       </c>
       <c r="G72">
-        <v>-0.003723785715768802</v>
+        <v>-0.003915766503862083</v>
       </c>
       <c r="H72">
-        <v>-0.003405891475692288</v>
+        <v>-0.003403489228679694</v>
       </c>
       <c r="I72">
-        <v>0.001981613883265529</v>
+        <v>0.001820659098494056</v>
       </c>
       <c r="J72">
-        <v>-0.0007470530883741584</v>
+        <v>-0.001609430599410282</v>
       </c>
       <c r="K72">
-        <v>0.0003077515836909933</v>
+        <v>-4.512847227135247E-06</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2929,34 +2929,34 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.3221613758214484</v>
+        <v>-0.003038105916883036</v>
       </c>
       <c r="C73">
-        <v>0.2063208038227754</v>
+        <v>0.001147170053496721</v>
       </c>
       <c r="D73">
-        <v>-0.1964801911323301</v>
+        <v>-0.002190574121755166</v>
       </c>
       <c r="E73">
-        <v>-0.1900826235009261</v>
+        <v>-0.002039137641326049</v>
       </c>
       <c r="F73">
-        <v>-0.2325850892455283</v>
+        <v>-0.002120270442021974</v>
       </c>
       <c r="G73">
-        <v>-0.4431672618913611</v>
+        <v>-0.003765910651636851</v>
       </c>
       <c r="H73">
-        <v>-0.3468556947607709</v>
+        <v>-0.002755606806820372</v>
       </c>
       <c r="I73">
-        <v>0.2207031347995146</v>
+        <v>0.002106032558574906</v>
       </c>
       <c r="J73">
-        <v>-0.1082255263654103</v>
+        <v>-0.001610084604541776</v>
       </c>
       <c r="K73">
-        <v>0.02275987459871143</v>
+        <v>-0.0005098331330240981</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2964,34 +2964,34 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.002656560155528999</v>
+        <v>-0.4969039141411076</v>
       </c>
       <c r="C74">
-        <v>0.001907382044524103</v>
+        <v>0.1948091334754607</v>
       </c>
       <c r="D74">
-        <v>-0.001513612785920118</v>
+        <v>-0.2684611203685462</v>
       </c>
       <c r="E74">
-        <v>-0.002799429935037469</v>
+        <v>-0.4323713198073592</v>
       </c>
       <c r="F74">
-        <v>-0.001859043241690874</v>
+        <v>-0.2175773303034842</v>
       </c>
       <c r="G74">
-        <v>-0.003349599274069663</v>
+        <v>-0.4459930481639789</v>
       </c>
       <c r="H74">
-        <v>-0.002915268894194483</v>
+        <v>-0.2724548928150735</v>
       </c>
       <c r="I74">
-        <v>0.002040336498975518</v>
+        <v>0.2951377540380571</v>
       </c>
       <c r="J74">
-        <v>-0.0007465915880035785</v>
+        <v>-0.20084523276608</v>
       </c>
       <c r="K74">
-        <v>-0.0002254826486114774</v>
+        <v>0.01106151397515591</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2999,34 +2999,34 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.2519312617796843</v>
+        <v>-0.5846601386107917</v>
       </c>
       <c r="C75">
-        <v>0.183546139752339</v>
+        <v>0.2413115072106057</v>
       </c>
       <c r="D75">
-        <v>-0.246797872128428</v>
+        <v>-0.2472692623202614</v>
       </c>
       <c r="E75">
-        <v>-0.3417735681739945</v>
+        <v>-0.3214627468853428</v>
       </c>
       <c r="F75">
-        <v>-0.1331810962065069</v>
+        <v>0.08777810637140357</v>
       </c>
       <c r="G75">
-        <v>-0.5035746516359481</v>
+        <v>-0.5476248517559543</v>
       </c>
       <c r="H75">
-        <v>-0.4593685860430893</v>
+        <v>-0.3097528546159255</v>
       </c>
       <c r="I75">
-        <v>0.2377772721804526</v>
+        <v>0.76711358703499</v>
       </c>
       <c r="J75">
-        <v>-0.5749404850654175</v>
+        <v>-0.4586818530246475</v>
       </c>
       <c r="K75">
-        <v>0.1219982775393425</v>
+        <v>0.04507506450572307</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3034,34 +3034,34 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.3534872124112057</v>
+        <v>-0.3554716250603469</v>
       </c>
       <c r="C76">
-        <v>0.3179174293711906</v>
+        <v>0.3031417189358667</v>
       </c>
       <c r="D76">
-        <v>-0.1894166636532576</v>
+        <v>-0.2165470897376848</v>
       </c>
       <c r="E76">
-        <v>-0.4131412478104638</v>
+        <v>-0.1974687446515253</v>
       </c>
       <c r="F76">
-        <v>-0.06789120290647198</v>
+        <v>-0.1575064134424051</v>
       </c>
       <c r="G76">
-        <v>-0.5256883791312208</v>
+        <v>-0.4439798145490058</v>
       </c>
       <c r="H76">
-        <v>-0.6813134693136177</v>
+        <v>-0.1905126012498858</v>
       </c>
       <c r="I76">
-        <v>0.3002500636070513</v>
+        <v>0.2278249835358117</v>
       </c>
       <c r="J76">
-        <v>-0.6867421865736797</v>
+        <v>-0.2093381814989974</v>
       </c>
       <c r="K76">
-        <v>0.03169384930897236</v>
+        <v>-0.04600382011996899</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3069,34 +3069,34 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.3143845216011744</v>
+        <v>-0.4276223739881047</v>
       </c>
       <c r="C77">
-        <v>0.1653923466859757</v>
+        <v>0.2677915672158276</v>
       </c>
       <c r="D77">
-        <v>-0.334724969451342</v>
+        <v>-0.2571076474728232</v>
       </c>
       <c r="E77">
-        <v>-0.2061197125380708</v>
+        <v>-0.2150768116083644</v>
       </c>
       <c r="F77">
-        <v>-0.06880630664216997</v>
+        <v>-0.2155669931638032</v>
       </c>
       <c r="G77">
-        <v>-0.5142753260095975</v>
+        <v>-0.578100189066122</v>
       </c>
       <c r="H77">
-        <v>-0.294018265621011</v>
+        <v>-0.2171484373930452</v>
       </c>
       <c r="I77">
-        <v>0.2985151159214218</v>
+        <v>0.2803747818536279</v>
       </c>
       <c r="J77">
-        <v>-0.3400114221990924</v>
+        <v>-0.2747094385951989</v>
       </c>
       <c r="K77">
-        <v>-0.1042331698579093</v>
+        <v>0.1214856365114323</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3104,34 +3104,34 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.02336233074014528</v>
+        <v>-0.3627846660612273</v>
       </c>
       <c r="C78">
-        <v>0.01437911888269281</v>
+        <v>0.1169532674514767</v>
       </c>
       <c r="D78">
-        <v>-0.0111957741348975</v>
+        <v>-0.207749580152404</v>
       </c>
       <c r="E78">
-        <v>-0.02046888746454226</v>
+        <v>-0.2593019999268051</v>
       </c>
       <c r="F78">
-        <v>-0.01693931604819249</v>
+        <v>-0.1938037157403988</v>
       </c>
       <c r="G78">
-        <v>-0.03376637430261131</v>
+        <v>-0.336280574720854</v>
       </c>
       <c r="H78">
-        <v>-0.02587466593823403</v>
+        <v>-0.3574931023669629</v>
       </c>
       <c r="I78">
-        <v>0.02244157086545244</v>
+        <v>0.3359566842832415</v>
       </c>
       <c r="J78">
-        <v>-0.007178520569755026</v>
+        <v>-0.2744979888546789</v>
       </c>
       <c r="K78">
-        <v>-0.003819616573084849</v>
+        <v>-0.03922102331819619</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3139,34 +3139,34 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.5975648297734533</v>
+        <v>-0.02810154949273548</v>
       </c>
       <c r="C79">
-        <v>0.3691046998463673</v>
+        <v>0.01656153303933321</v>
       </c>
       <c r="D79">
-        <v>-0.2751565983790166</v>
+        <v>-0.0164169163128177</v>
       </c>
       <c r="E79">
-        <v>-0.444154572981743</v>
+        <v>-0.02822948654093918</v>
       </c>
       <c r="F79">
-        <v>-0.1559687974152301</v>
+        <v>-0.01497141728909373</v>
       </c>
       <c r="G79">
-        <v>-0.6262371777390985</v>
+        <v>-0.03054947795519356</v>
       </c>
       <c r="H79">
-        <v>-0.5683997409412301</v>
+        <v>-0.02354761670310511</v>
       </c>
       <c r="I79">
-        <v>0.2401915018702632</v>
+        <v>0.02151389730961888</v>
       </c>
       <c r="J79">
-        <v>-0.1930540613105728</v>
+        <v>-0.01497837191043122</v>
       </c>
       <c r="K79">
-        <v>0.06995038541474723</v>
+        <v>0.001056075070929103</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3174,34 +3174,34 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.397763727375847</v>
+        <v>-0.6128970703053532</v>
       </c>
       <c r="C80">
-        <v>0.1883209004307444</v>
+        <v>0.4935422934354801</v>
       </c>
       <c r="D80">
-        <v>-0.256534529635477</v>
+        <v>-0.181339768455105</v>
       </c>
       <c r="E80">
-        <v>-0.1731769708996055</v>
+        <v>-0.2196110732390035</v>
       </c>
       <c r="F80">
-        <v>-0.1541024756088633</v>
+        <v>-0.4991981292662331</v>
       </c>
       <c r="G80">
-        <v>-0.4921214243052764</v>
+        <v>-0.8531760437553296</v>
       </c>
       <c r="H80">
-        <v>-0.353018991038816</v>
+        <v>-0.3460344811595202</v>
       </c>
       <c r="I80">
-        <v>0.2776482401356739</v>
+        <v>0.1333350014122377</v>
       </c>
       <c r="J80">
-        <v>-0.1523564798301099</v>
+        <v>-0.1998518614011499</v>
       </c>
       <c r="K80">
-        <v>0.04729079273040799</v>
+        <v>0.07362858726126109</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3209,34 +3209,34 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.1310717339321406</v>
+        <v>-0.003491291007982466</v>
       </c>
       <c r="C81">
-        <v>0.1109636113239424</v>
+        <v>0.0009702258767590249</v>
       </c>
       <c r="D81">
-        <v>-0.07412561364293278</v>
+        <v>-0.002626985222356887</v>
       </c>
       <c r="E81">
-        <v>-0.1107169341872642</v>
+        <v>-0.001997310776184311</v>
       </c>
       <c r="F81">
-        <v>-0.07268582706759238</v>
+        <v>-0.002043590701244228</v>
       </c>
       <c r="G81">
-        <v>-0.1899582062140867</v>
+        <v>-0.003870874568164141</v>
       </c>
       <c r="H81">
-        <v>-0.2024528502751829</v>
+        <v>-0.003438848806398679</v>
       </c>
       <c r="I81">
-        <v>0.04887632852977627</v>
+        <v>0.0022393897821304</v>
       </c>
       <c r="J81">
-        <v>-0.06015222161770353</v>
+        <v>-0.001611830039436537</v>
       </c>
       <c r="K81">
-        <v>0.03813672033547192</v>
+        <v>2.253605886514607E-05</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3244,34 +3244,34 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.1757592651845312</v>
+        <v>-0.201773020953694</v>
       </c>
       <c r="C82">
-        <v>0.1083741145997456</v>
+        <v>0.06424176313699072</v>
       </c>
       <c r="D82">
-        <v>-0.1026355100489838</v>
+        <v>-0.1108265182414987</v>
       </c>
       <c r="E82">
-        <v>-0.09634143166192842</v>
+        <v>-0.09232721618152298</v>
       </c>
       <c r="F82">
-        <v>-0.1024013810862335</v>
+        <v>-0.1029889325785537</v>
       </c>
       <c r="G82">
-        <v>-0.235572415893324</v>
+        <v>-0.2098516839457897</v>
       </c>
       <c r="H82">
-        <v>-0.1614111216908926</v>
+        <v>-0.2288810374889371</v>
       </c>
       <c r="I82">
-        <v>0.1547298398060909</v>
+        <v>0.1046294117210129</v>
       </c>
       <c r="J82">
-        <v>-0.05421014170093384</v>
+        <v>-0.09302204168163201</v>
       </c>
       <c r="K82">
-        <v>0.03763690988357436</v>
+        <v>0.01930918085248927</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3279,34 +3279,34 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.1557156506675429</v>
+        <v>-0.3121481091221487</v>
       </c>
       <c r="C83">
-        <v>0.1364018434219636</v>
+        <v>0.1669694363737695</v>
       </c>
       <c r="D83">
-        <v>-0.0887638438476171</v>
+        <v>-0.2387867591534568</v>
       </c>
       <c r="E83">
-        <v>-0.1650358602893501</v>
+        <v>-0.2230058750823877</v>
       </c>
       <c r="F83">
-        <v>-0.07277546394486155</v>
+        <v>-0.1220713016098458</v>
       </c>
       <c r="G83">
-        <v>-0.1879019438392482</v>
+        <v>-0.415498369803185</v>
       </c>
       <c r="H83">
-        <v>-0.1792972707485163</v>
+        <v>-0.1762235207776999</v>
       </c>
       <c r="I83">
-        <v>0.07072979408178105</v>
+        <v>0.2325738520825984</v>
       </c>
       <c r="J83">
-        <v>-0.05008191389095632</v>
+        <v>-0.1842607895274646</v>
       </c>
       <c r="K83">
-        <v>-0.007929783590129563</v>
+        <v>0.05554190664419986</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3314,34 +3314,34 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.4642175529018792</v>
+        <v>-0.2301809033287094</v>
       </c>
       <c r="C84">
-        <v>0.5858699824579059</v>
+        <v>0.07427243539708164</v>
       </c>
       <c r="D84">
-        <v>-0.1812388682668633</v>
+        <v>-0.1201052104759373</v>
       </c>
       <c r="E84">
-        <v>-0.2142573256135539</v>
+        <v>-0.1513181069495213</v>
       </c>
       <c r="F84">
-        <v>-0.5583059884646961</v>
+        <v>-0.1567999167380777</v>
       </c>
       <c r="G84">
-        <v>-0.8346887188753946</v>
+        <v>-0.226465268367676</v>
       </c>
       <c r="H84">
-        <v>-0.2903794025485749</v>
+        <v>-0.1567596035265777</v>
       </c>
       <c r="I84">
-        <v>0.1307032267809726</v>
+        <v>0.1353379984040514</v>
       </c>
       <c r="J84">
-        <v>-0.3176553436281664</v>
+        <v>-0.08577611612597455</v>
       </c>
       <c r="K84">
-        <v>0.1943564617602006</v>
+        <v>0.01224539545925049</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3349,34 +3349,34 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.4034212184237492</v>
+        <v>-0.7503032351812924</v>
       </c>
       <c r="C85">
-        <v>0.457694041399811</v>
+        <v>0.4128830299080549</v>
       </c>
       <c r="D85">
-        <v>-0.2692895220541917</v>
+        <v>-0.2191930536176042</v>
       </c>
       <c r="E85">
-        <v>-0.1906841931308077</v>
+        <v>-0.5463727436943022</v>
       </c>
       <c r="F85">
-        <v>-0.1558940689881866</v>
+        <v>-0.4787438441455334</v>
       </c>
       <c r="G85">
-        <v>-0.6266049315753353</v>
+        <v>-0.5592715461035807</v>
       </c>
       <c r="H85">
-        <v>-0.4347431612153683</v>
+        <v>-0.6303997881984876</v>
       </c>
       <c r="I85">
-        <v>0.4358567454722764</v>
+        <v>0.3927373190753726</v>
       </c>
       <c r="J85">
-        <v>-0.5154788645258587</v>
+        <v>-0.2015907416255232</v>
       </c>
       <c r="K85">
-        <v>-0.1105607516892197</v>
+        <v>-0.03900240363900341</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3384,34 +3384,34 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.002789038747672034</v>
+        <v>-0.002906865127503047</v>
       </c>
       <c r="C86">
-        <v>0.001625235992840377</v>
+        <v>0.001036562677000308</v>
       </c>
       <c r="D86">
-        <v>-0.001733433643722677</v>
+        <v>-0.001657871940966152</v>
       </c>
       <c r="E86">
-        <v>-0.002426544431541055</v>
+        <v>-0.002356816214123035</v>
       </c>
       <c r="F86">
-        <v>-0.002275445210711032</v>
+        <v>-0.002105517108366343</v>
       </c>
       <c r="G86">
-        <v>-0.003235885613422381</v>
+        <v>-0.003221080556200758</v>
       </c>
       <c r="H86">
-        <v>-0.003343916139237696</v>
+        <v>-0.003285426385089472</v>
       </c>
       <c r="I86">
-        <v>0.002141752895212325</v>
+        <v>0.002057098122799925</v>
       </c>
       <c r="J86">
-        <v>-0.0007457492385487996</v>
+        <v>-0.001612603939695963</v>
       </c>
       <c r="K86">
-        <v>-0.0003146518917902877</v>
+        <v>0.000251522833683408</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3419,34 +3419,34 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.6221403439631503</v>
+        <v>-0.6007459796133692</v>
       </c>
       <c r="C87">
-        <v>0.3119276841197326</v>
+        <v>0.3359503470560616</v>
       </c>
       <c r="D87">
-        <v>-0.3937320334348172</v>
+        <v>-0.2013538602712714</v>
       </c>
       <c r="E87">
-        <v>-0.5408611363083756</v>
+        <v>-0.4338182113977866</v>
       </c>
       <c r="F87">
-        <v>-0.1748844429251979</v>
+        <v>-0.2650602060489191</v>
       </c>
       <c r="G87">
-        <v>-0.6738090803785467</v>
+        <v>-0.526049857146258</v>
       </c>
       <c r="H87">
-        <v>-0.6646122209581055</v>
+        <v>-0.5918457778906545</v>
       </c>
       <c r="I87">
-        <v>0.3854664635297455</v>
+        <v>0.3608807447367149</v>
       </c>
       <c r="J87">
-        <v>-0.591938590120043</v>
+        <v>-0.1648200987314148</v>
       </c>
       <c r="K87">
-        <v>0.06122028857377391</v>
+        <v>0.1928587077093344</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3454,34 +3454,34 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.4783031631188122</v>
+        <v>-0.1763471504028078</v>
       </c>
       <c r="C88">
-        <v>0.2641871655742322</v>
+        <v>0.07979400493032046</v>
       </c>
       <c r="D88">
-        <v>-0.3984367955711256</v>
+        <v>-0.0841527153125127</v>
       </c>
       <c r="E88">
-        <v>-0.4818857423708777</v>
+        <v>-0.1050598122022449</v>
       </c>
       <c r="F88">
-        <v>0.02822243750088798</v>
+        <v>-0.1084022351967833</v>
       </c>
       <c r="G88">
-        <v>-0.5626761700078891</v>
+        <v>-0.1872526039681678</v>
       </c>
       <c r="H88">
-        <v>-0.8538661565681051</v>
+        <v>-0.1906585656587018</v>
       </c>
       <c r="I88">
-        <v>0.4010362879790101</v>
+        <v>0.1333232094402797</v>
       </c>
       <c r="J88">
-        <v>-1.041688425138513</v>
+        <v>-0.09435695170049287</v>
       </c>
       <c r="K88">
-        <v>-0.1618575687630679</v>
+        <v>0.01379842645890749</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3489,34 +3489,34 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.3137595995594849</v>
+        <v>-0.7056453681982776</v>
       </c>
       <c r="C89">
-        <v>0.3260536350691802</v>
+        <v>0.237791315987616</v>
       </c>
       <c r="D89">
-        <v>-0.1754395719356188</v>
+        <v>-0.4057819281571922</v>
       </c>
       <c r="E89">
-        <v>-0.31436231165975</v>
+        <v>-0.4900504463618947</v>
       </c>
       <c r="F89">
-        <v>-0.3967546430134341</v>
+        <v>-0.2054459683840953</v>
       </c>
       <c r="G89">
-        <v>-0.5416313803552925</v>
+        <v>-0.6632862900166255</v>
       </c>
       <c r="H89">
-        <v>-0.3319404688108905</v>
+        <v>-0.4863638799469066</v>
       </c>
       <c r="I89">
-        <v>0.163999741106199</v>
+        <v>0.2055888395056892</v>
       </c>
       <c r="J89">
-        <v>-0.2802399942380027</v>
+        <v>-0.2974853489452408</v>
       </c>
       <c r="K89">
-        <v>0.01344461068890029</v>
+        <v>-0.1003286309651133</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3524,34 +3524,34 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.00309301063011599</v>
+        <v>-0.2199449100784933</v>
       </c>
       <c r="C90">
-        <v>0.001403547555355414</v>
+        <v>0.09831773491147582</v>
       </c>
       <c r="D90">
-        <v>-0.002178906642551313</v>
+        <v>-0.1208689454613671</v>
       </c>
       <c r="E90">
-        <v>-0.001923817658183879</v>
+        <v>-0.1238109864513732</v>
       </c>
       <c r="F90">
-        <v>-0.002014301530310537</v>
+        <v>-0.1381817686264424</v>
       </c>
       <c r="G90">
-        <v>-0.003951590763956221</v>
+        <v>-0.2211984167145126</v>
       </c>
       <c r="H90">
-        <v>-0.003610472361094927</v>
+        <v>-0.1720378605893946</v>
       </c>
       <c r="I90">
-        <v>0.002059492250531869</v>
+        <v>0.1435591517798368</v>
       </c>
       <c r="J90">
-        <v>-0.0007471008380267708</v>
+        <v>-0.0868997927881441</v>
       </c>
       <c r="K90">
-        <v>-0.0003046551447537704</v>
+        <v>0.02400964623676708</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3559,34 +3559,34 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.003098038488105059</v>
+        <v>-0.003205201756290085</v>
       </c>
       <c r="C91">
-        <v>0.001353538312689832</v>
+        <v>0.0009157869109620398</v>
       </c>
       <c r="D91">
-        <v>-0.002146690228944123</v>
+        <v>-0.002120148790352797</v>
       </c>
       <c r="E91">
-        <v>-0.002368456781682275</v>
+        <v>-0.002380116835031637</v>
       </c>
       <c r="F91">
-        <v>-0.002425768689398596</v>
+        <v>-0.00208578005886703</v>
       </c>
       <c r="G91">
-        <v>-0.003698539979478458</v>
+        <v>-0.003898970178270986</v>
       </c>
       <c r="H91">
-        <v>-0.00340312678569427</v>
+        <v>-0.003233244815969109</v>
       </c>
       <c r="I91">
-        <v>0.002013029066273291</v>
+        <v>0.001477018281959435</v>
       </c>
       <c r="J91">
-        <v>-0.0007469337775015569</v>
+        <v>-0.001610268180292931</v>
       </c>
       <c r="K91">
-        <v>0.0005683233245431195</v>
+        <v>-0.0006710274707892727</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3594,34 +3594,34 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.2617249947011581</v>
+        <v>-0.362217924628176</v>
       </c>
       <c r="C92">
-        <v>0.220812669375905</v>
+        <v>0.2773044247120874</v>
       </c>
       <c r="D92">
-        <v>-0.09572573835771418</v>
+        <v>-0.207577260173634</v>
       </c>
       <c r="E92">
-        <v>-0.1073652272819424</v>
+        <v>-0.3298923286607339</v>
       </c>
       <c r="F92">
-        <v>-0.2440512611812956</v>
+        <v>-0.1804708844041358</v>
       </c>
       <c r="G92">
-        <v>-0.4985285207858636</v>
+        <v>-0.5047389139585118</v>
       </c>
       <c r="H92">
-        <v>-0.1898977336619773</v>
+        <v>-0.1386545467992433</v>
       </c>
       <c r="I92">
-        <v>0.2660585853771082</v>
+        <v>0.1516185983011218</v>
       </c>
       <c r="J92">
-        <v>-0.1574809133456622</v>
+        <v>-0.1597546568899145</v>
       </c>
       <c r="K92">
-        <v>0.07130367218503061</v>
+        <v>-0.02429150899200081</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3629,34 +3629,34 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.00313460883997823</v>
+        <v>-0.003003224918217843</v>
       </c>
       <c r="C93">
-        <v>0.001719178331513694</v>
+        <v>0.001083085731825463</v>
       </c>
       <c r="D93">
-        <v>-0.001971805730366783</v>
+        <v>-0.002026668056752289</v>
       </c>
       <c r="E93">
-        <v>-0.002678217127913645</v>
+        <v>-0.002338306345345927</v>
       </c>
       <c r="F93">
-        <v>-0.002072170228187203</v>
+        <v>-0.001659907350963804</v>
       </c>
       <c r="G93">
-        <v>-0.003486495023389958</v>
+        <v>-0.003413383229989604</v>
       </c>
       <c r="H93">
-        <v>-0.003398407796875231</v>
+        <v>-0.003140153401375236</v>
       </c>
       <c r="I93">
-        <v>0.002434549239945215</v>
+        <v>0.002366227273974535</v>
       </c>
       <c r="J93">
-        <v>-0.0007457851261970049</v>
+        <v>-0.001612917569976552</v>
       </c>
       <c r="K93">
-        <v>7.429577219169208E-05</v>
+        <v>-0.0003176009943934185</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3664,34 +3664,34 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.252107798444336</v>
+        <v>-0.3553361261177239</v>
       </c>
       <c r="C94">
-        <v>0.1362313776671336</v>
+        <v>0.2114867633414468</v>
       </c>
       <c r="D94">
-        <v>-0.1938266634673055</v>
+        <v>-0.1637269772295473</v>
       </c>
       <c r="E94">
-        <v>-0.2549218499451111</v>
+        <v>-0.2591353950122034</v>
       </c>
       <c r="F94">
-        <v>-0.2281426158337955</v>
+        <v>-0.1109892221207702</v>
       </c>
       <c r="G94">
-        <v>-0.3881724018198716</v>
+        <v>-0.395735515463176</v>
       </c>
       <c r="H94">
-        <v>-0.2586476412645298</v>
+        <v>-0.3814908343197796</v>
       </c>
       <c r="I94">
-        <v>0.1838961079753895</v>
+        <v>0.2362255665143483</v>
       </c>
       <c r="J94">
-        <v>-0.1656416656089064</v>
+        <v>-0.2814640058934635</v>
       </c>
       <c r="K94">
-        <v>-0.06002891449034035</v>
+        <v>0.005094275291820691</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3699,34 +3699,34 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.002591057732817951</v>
+        <v>-0.601877110903564</v>
       </c>
       <c r="C95">
-        <v>0.001858170123438759</v>
+        <v>0.3537832297346176</v>
       </c>
       <c r="D95">
-        <v>-0.001631175964607612</v>
+        <v>-0.2143316057951095</v>
       </c>
       <c r="E95">
-        <v>-0.001887795551800421</v>
+        <v>-0.3350899066250549</v>
       </c>
       <c r="F95">
-        <v>-0.001857345059523572</v>
+        <v>-0.1353548414693401</v>
       </c>
       <c r="G95">
-        <v>-0.003710200169275946</v>
+        <v>-0.5076873721135138</v>
       </c>
       <c r="H95">
-        <v>-0.00285685076778184</v>
+        <v>-0.587066784872835</v>
       </c>
       <c r="I95">
-        <v>0.002242587074797998</v>
+        <v>0.4207060902419856</v>
       </c>
       <c r="J95">
-        <v>-0.0007462116835134537</v>
+        <v>-0.2891547218293075</v>
       </c>
       <c r="K95">
-        <v>0.0001958462378122614</v>
+        <v>-0.09895471688486751</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3734,34 +3734,34 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.1045301744375758</v>
+        <v>-0.003083778463020365</v>
       </c>
       <c r="C96">
-        <v>0.04071823429212118</v>
+        <v>0.001314686594297253</v>
       </c>
       <c r="D96">
-        <v>-0.08864612217763444</v>
+        <v>-0.002379278606201279</v>
       </c>
       <c r="E96">
-        <v>-0.1206362403464451</v>
+        <v>-0.002196033120764123</v>
       </c>
       <c r="F96">
-        <v>-0.109392765039843</v>
+        <v>-0.001452257765053938</v>
       </c>
       <c r="G96">
-        <v>-0.1565651085706561</v>
+        <v>-0.003610912668825853</v>
       </c>
       <c r="H96">
-        <v>-0.122508917877354</v>
+        <v>-0.003419306790326488</v>
       </c>
       <c r="I96">
-        <v>0.1316015037123146</v>
+        <v>0.001682678664670059</v>
       </c>
       <c r="J96">
-        <v>-0.05883193829248024</v>
+        <v>-0.001611520469371246</v>
       </c>
       <c r="K96">
-        <v>0.02812868632286594</v>
+        <v>0.0002686324472730808</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3769,34 +3769,34 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.184508491310793</v>
+        <v>-0.003289134242484604</v>
       </c>
       <c r="C97">
-        <v>0.0794395939729598</v>
+        <v>0.001739476882893527</v>
       </c>
       <c r="D97">
-        <v>-0.1135225419626118</v>
+        <v>-0.001990737138862433</v>
       </c>
       <c r="E97">
-        <v>-0.1035499377842841</v>
+        <v>-0.002271350084133498</v>
       </c>
       <c r="F97">
-        <v>-0.1176675111650459</v>
+        <v>-0.002029711087996344</v>
       </c>
       <c r="G97">
-        <v>-0.2094108947510377</v>
+        <v>-0.003999142012530507</v>
       </c>
       <c r="H97">
-        <v>-0.2236534475887475</v>
+        <v>-0.002546020334141511</v>
       </c>
       <c r="I97">
-        <v>0.1289729883212649</v>
+        <v>0.00248584320065084</v>
       </c>
       <c r="J97">
-        <v>-0.05356479370102934</v>
+        <v>-0.001607729904757919</v>
       </c>
       <c r="K97">
-        <v>0.0002748434339877631</v>
+        <v>0.0002271588240788162</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3804,34 +3804,34 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.2040088108876141</v>
+        <v>-0.03005524886320615</v>
       </c>
       <c r="C98">
-        <v>0.081526736580199</v>
+        <v>0.01575477405771027</v>
       </c>
       <c r="D98">
-        <v>-0.1210133663170236</v>
+        <v>-0.02031433145953805</v>
       </c>
       <c r="E98">
-        <v>-0.12782449843949</v>
+        <v>-0.01828028945458235</v>
       </c>
       <c r="F98">
-        <v>-0.1048991915871354</v>
+        <v>-0.01611099039384566</v>
       </c>
       <c r="G98">
-        <v>-0.2218893168680592</v>
+        <v>-0.03667599311157334</v>
       </c>
       <c r="H98">
-        <v>-0.2319798491152721</v>
+        <v>-0.02731948926543442</v>
       </c>
       <c r="I98">
-        <v>0.07915466946765454</v>
+        <v>0.02078209175478232</v>
       </c>
       <c r="J98">
-        <v>-0.0487519842826365</v>
+        <v>-0.01518758500166385</v>
       </c>
       <c r="K98">
-        <v>0.04516948785063666</v>
+        <v>0.002923097157428057</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3839,34 +3839,34 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.003051335895088689</v>
+        <v>-0.4590888519763109</v>
       </c>
       <c r="C99">
-        <v>0.001615392228357359</v>
+        <v>0.3450252535154602</v>
       </c>
       <c r="D99">
-        <v>-0.001590037087384036</v>
+        <v>-0.3341178949069993</v>
       </c>
       <c r="E99">
-        <v>-0.002406450119462988</v>
+        <v>-0.2464384988778787</v>
       </c>
       <c r="F99">
-        <v>-0.002184900386342915</v>
+        <v>-0.1981379977460207</v>
       </c>
       <c r="G99">
-        <v>-0.003773969916800094</v>
+        <v>-0.5681535221771796</v>
       </c>
       <c r="H99">
-        <v>-0.003257162437816044</v>
+        <v>-0.199958734036126</v>
       </c>
       <c r="I99">
-        <v>0.002483427198877621</v>
+        <v>0.3165299162422492</v>
       </c>
       <c r="J99">
-        <v>-0.0007476118453840908</v>
+        <v>-0.2071061439077193</v>
       </c>
       <c r="K99">
-        <v>4.15870394699886E-05</v>
+        <v>0.07521597310364328</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3874,34 +3874,34 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.30798912289271</v>
+        <v>-0.3892853248854271</v>
       </c>
       <c r="C100">
-        <v>0.192479614340497</v>
+        <v>0.2481783233034882</v>
       </c>
       <c r="D100">
-        <v>-0.2838920461270037</v>
+        <v>-0.1411960763790174</v>
       </c>
       <c r="E100">
-        <v>-0.1587193958081394</v>
+        <v>-0.1465305199666345</v>
       </c>
       <c r="F100">
-        <v>-0.1358086828410877</v>
+        <v>-0.1703487892286462</v>
       </c>
       <c r="G100">
-        <v>-0.4762751418316206</v>
+        <v>-0.6082154891090158</v>
       </c>
       <c r="H100">
-        <v>-0.3954292804791154</v>
+        <v>-0.2713357102768233</v>
       </c>
       <c r="I100">
-        <v>0.2584847056869606</v>
+        <v>0.1335248734992476</v>
       </c>
       <c r="J100">
-        <v>-0.3061691212334506</v>
+        <v>-0.1777991224643339</v>
       </c>
       <c r="K100">
-        <v>0.05519184081488256</v>
+        <v>-0.0448429019547131</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3909,34 +3909,34 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.4965733671651025</v>
+        <v>-0.3129266934950991</v>
       </c>
       <c r="C101">
-        <v>0.4922265323933486</v>
+        <v>0.1821073800893961</v>
       </c>
       <c r="D101">
-        <v>-0.3352973462431701</v>
+        <v>-0.1517396926075005</v>
       </c>
       <c r="E101">
-        <v>-0.3849800983263136</v>
+        <v>-0.3159607336331101</v>
       </c>
       <c r="F101">
-        <v>-0.07702572633299187</v>
+        <v>-0.1953186821026842</v>
       </c>
       <c r="G101">
-        <v>-0.7922297791255469</v>
+        <v>-0.3041981002786167</v>
       </c>
       <c r="H101">
-        <v>-0.3760738088370705</v>
+        <v>-0.3551518283885629</v>
       </c>
       <c r="I101">
-        <v>0.4203499232879092</v>
+        <v>0.2116983816316029</v>
       </c>
       <c r="J101">
-        <v>-0.8305043389872039</v>
+        <v>-0.1770483662108484</v>
       </c>
       <c r="K101">
-        <v>-0.3277705646935919</v>
+        <v>-0.1001904660342103</v>
       </c>
     </row>
   </sheetData>
